--- a/output/all_translation.xlsx
+++ b/output/all_translation.xlsx
@@ -522,13 +522,7 @@
           <t>I thought that my older sister would be able to make better judgments because she is more mature than me.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Step 1: 가방끈이 기다  
-Step 2: "longer in the tooth"  
-Step 3: I thought that because my older sister is longer in the tooth than me, she would be able to make better judgments.</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>I thought my older sister would make better judgments than me because she has a longer purse strap.</t>
@@ -583,13 +577,7 @@
           <t>Those people said that crabs are more convenient, so they will help their fellow villagers.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Step 1: 가재는 게 편이라고
-Step 2: The English idiom with a similar meaning is "blood is thicker than water."
-Step 3: These people will help their own town folks because, as the saying goes, "blood is thicker than water."</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>Those people believe that it will be easy for a crab to help its fellow crab.</t>
@@ -644,13 +632,7 @@
           <t>Stop messing around. I thought my liver was going to fall out.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Step 1: 간 떨어지는 줄 알았다
-Step 2: To give someone a scare
-Step 3: Stop fooling around. You scared me.</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Stop messing around. I thought my heart was going to leap out of my chest.</t>
@@ -709,13 +691,7 @@
           <t>You seem to be watching the fire across the river.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Step 1: "강 건너 불 구경하듯 하다"
-Step 2: "To watch the fire from across the river"
-Step 3: You seem to be watching the fire from across the river.</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>You seem to be watching a fire across the river.</t>
@@ -774,13 +750,7 @@
           <t>They say that even the concentration this year will become even thicker, so respiratory disease patients such as colds, asthma, and bronchitis, as well as frail elderly people with weak lungs or cardiovascular system, are very worried.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Step 1: 걱정이 태산이다
-Step 2: To have a mountain to climb
-Step 3: This year, with even higher concentration, respiratory disease patients such as those with colds, asthma, bronchitis, as well as weak elderly people with lung or cardiovascular problems have a mountain to climb with worries.</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>This year, it is said that even the air quality will be more severe, so those with respiratory diseases such as colds, asthma, and bronchitis, as well as weak elderly people with diseases of the lungs and cardiovascular system, are extremely worried.</t>
@@ -835,13 +805,7 @@
           <t>The prospect of private education exploiting such aspects is raising concerns.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Step 1: 악용하다
-Step 2: Take advantage of
-Step 3: It is a bleak prospect for private education to raise its head by taking advantage of these points.</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Exploiting such points is the outlook of private education that raises its head.</t>
@@ -892,13 +856,7 @@
           <t>Just like the saying "there is light at the end of the tunnel", he went through all sorts of hardships but in the end, he achieved something great.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Step 1: 고생 끝에 낙이 온다  
-Step 2: Every cloud has a silver lining  
-Step 3: Just as the saying goes, "Every cloud has a silver lining," he went through all sorts of hardships but finally achieved something great.</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>Just like the saying "good things come to those who wait", he went through all kinds of hardships but finally achieved something remarkable.</t>
@@ -953,13 +911,7 @@
           <t>I have thin ears, so I tend to believe what other people say.</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Step 1: 귀가 얇다  
-Step 2: "to have a soft spot for something"  
-Step 3: I have a soft spot for believing what other people say.</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>I have thin ears so I easily believe what others say.</t>
@@ -1018,13 +970,7 @@
           <t>The story pierced my ears like a nail.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Step 1: 귀에 못이 박히다 
-Step 2: "to go in one ear and out the other" 
-Step 3: I heard that story "it went in one ear and out the other."</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>I listened to that story until it was ingrained in my ears.</t>
@@ -1081,9 +1027,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Step 1. 그림의 떡이다  
-Step 2. "Pie in the sky"  
-Step 3. If you can't secure a cheap and high-quality source of energy, no matter how good your technology and core industries are, it's just a pie in the sky.</t>
+          <t xml:space="preserve"> If you can't secure a cheap and high-quality source of energy, no matter how good your technology and core industries are, it's just a pie in the sky.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1140,13 +1084,7 @@
           <t>Even Mount Geumgang looks like a painting after a meal, I cannot concentrate on anything in a hungry state.</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Step 1: 식후경이라고   
-Step 2: "You can't think straight on an empty stomach."  
-Step 3: Even Mount Geumgang looks different after a meal; you can't focus on anything when you're hungry.</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>Even the beautiful scenery of Mount Kumgang becomes insignificant when you are hungry and cannot focus on anything.</t>
@@ -1205,13 +1143,7 @@
           <t>With the agreement of Yongin City and Suwon City, the adjustment of city boundaries gained momentum.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Step 1: 급물살을 타다 (idiom)  
-Step 2: "in hot water" (equivalent idiom with a similar meaning)  
-Step 3: With the consent of the cities of Yongin and Suwon, the adjustments to the city boundaries are now in hot water.</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>With the agreement of Yongin City and Suwon City, the boundary adjustment caused a stir.</t>
@@ -1270,13 +1202,7 @@
           <t>She was amazed by his audacity.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Step 1: 기가 막히다 (literal meaning: to be out of one's mind)
-Step 2: Similar idiom: to be taken aback
-Step 3: She was taken aback by his audacity.</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>She was amazed by his audacity.</t>
@@ -1331,13 +1257,7 @@
           <t>It contains practical advice on how to generate innovative questions that will open up new paths depending on the situation one finds oneself in, instead.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Step 1: 열어줄  
-Step 2: Think outside the box  
-Step 3: It contains practical advice that can create new paths based on the situation you are in.</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>It contains practical advice on being able to generate innovative questions that can open up new paths based on the situation one finds oneself in.</t>
@@ -1388,13 +1308,7 @@
           <t>I know you've just started investing in stocks. So, I really hope you don't drink kimchi soup.</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Step 1: 김칫국 마시지 말다  
-Step 2: Put your feet under someone else's table  
-Step 3: I heard you just started investing in stocks. So, just a word of advice, I hope you don't put your feet under someone else's table.</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>I know you just started investing in stocks. So, I really hope you don't drink kimchi soup.</t>
@@ -1445,13 +1359,7 @@
           <t>If you buy toothpaste, they give you a toothbrush as a free gift - it's like killing two birds with one stone.</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Step 1: 꿩 먹고 알 먹고  
-Step 2: Killing two birds with one stone  
-Step 3: I heard they give you a toothbrush as a free gift if you buy toothpaste, killing two birds with one stone.</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>"Buying toothpaste and receiving a toothbrush as a freebie is like killing two birds with one stone."</t>
@@ -1506,13 +1414,7 @@
           <t>Masks, essential items for fine dust, have increased sales by a whopping 399.8%, and hand sanitizers by 96.9%. It truly feels like the saying "flies off the shelves" has come to life.</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Step 1: 날개돋친
-Step 2: Spread one's wings
-Step 3: The masks, an essential product for fine dust, have increased in sales by a whopping 399.8%, while hand sanitizer has seen a 96.9% increase, making the expression "spread one's wings" feel all too real.</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>The mask, an essential item for fine dust, saw a remarkable 399.8% increase in sales, while hand sanitizer saw a 96.9% increase, leading to the saying "selling like hotcakes" coming true to the extent that it is felt firsthand.</t>
@@ -1571,13 +1473,7 @@
           <t>This tour performance is different from the overseas promotions of K-pop idol groups that are based on large-scale planning agencies backed by other major capitals, as it aims to spread its wings for overseas expansion.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Step 1: 날개를 펴다 (Literally: spread wings)  
-Step 2: Spread one's wings   
-Step 3: This tour is different from the international promotions of K-pop idol groups based on other major entertainment companies that have already spread their wings overseas.</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>This tour is different from the overseas promotions of K-pop idol groups that are expanding their wings through large entertainment companies based on other giant capital.</t>
@@ -1636,13 +1532,7 @@
           <t>Many people think that others' portions appear larger due to their selfish and greedy nature.</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Step 1: 인간은 이기적이고 탐욕적인 본성 때문에 남의 떡이 더 커 보인다고 생각하는 경우가 많다.
-Step 2: "The grass is always greener on the other side".
-Step 3: Due to their selfish and greedy nature, humans often think that others have bigger rice cakes, referring to "The grass is always greener on the other side".</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>Due to their selfish and greedy nature, humans often think that other people's rice cakes look bigger.</t>
@@ -1701,13 +1591,7 @@
           <t>Especially for individual investors, who often jump into the market without sufficient market information in hopes of high returns, most end up facing losses.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Step 1: 섣불리 뛰어들다  
-Step 2: Dive in headfirst  
-Step 3: Especially in the case of individual investors, they expect high returns in situations where market information is lacking and dive in headfirst, only to suffer losses in most cases.</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>Especially for individual investors, most cases of jumping into the market without sufficient market information and expecting high returns lead to losses.</t>
@@ -1762,13 +1646,7 @@
           <t>Google is a place where only the world's most noteworthy IT geniuses gather, so it's sometimes surprising to see the search results.</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Step 1: 내로라할만하다  
-Step 2: Stand head and shoulders above  
-Step 3: Since Google is where the world's most noteworthy IT geniuses gather, it's not surprising to be amazed by the search results.</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>Google is where the world's most remarkable IT geniuses gather, so it's sometimes astonishing to see the search results.</t>
@@ -1815,13 +1693,7 @@
           <t>After the given hour passed in the blink of an eye, there were also students who, avoiding the teacher's touch gathering up the manuscript paper, struggled to write down even one more Chinese character.</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Step 1: 눈 깜짝할 사이
-Step 2: In the blink of an eye 
-Step 3: The teacher's hand picking up the manuscript after the given hour passed in the blink of an eye, some students exerting extra effort, avoiding the teacher's hand to take even one more letter down, caught the occasional attention.</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>After the given hour had passed in the blink of an eye, there were also students occasionally trying their best to write down one more Chinese character, avoiding the teacher's hand gathering the manuscripts.</t>
@@ -1876,13 +1748,7 @@
           <t>I have high standards so I don't go on dates often.</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Step 1: 눈이 높다
-Step 2: To have high standards
-Step 3: I have high standards, so I don't date often.</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>I have high standards, so I don't go on many dates.</t>
@@ -1941,13 +1807,7 @@
           <t>If a child is unable to focus their eyes well, it could be a symptom of a illness. Therefore, it is advisable to visit an ophthalmologist for accurate diagnosis and treatment.</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Step 1: 눈을 맞추다
-Step 2: If someone "can't hit the nail on the head" in English, it means they are not accurate or precise in what they are doing.
-Step 3: If a child cannot focus their eyes well, it could be a symptom of an illness, so it is best to visit an ophthalmologist for accurate diagnosis and treatment.</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>If a child has difficulty focusing their eyes, it may be a symptom of a disease, so it is recommended to visit an eye doctor for accurate diagnosis and treatment.</t>
@@ -2002,13 +1862,7 @@
           <t>This time, I will close my eyes, so don't make any mistakes from now on.</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Step 1: 눈감다
-Step 2: Turn a blind eye
-Step 3: This time, I will turn a blind eye, so don't make mistakes from now on.</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>This time I will close my eyes, so don't make any mistakes from now on.</t>
@@ -2063,13 +1917,7 @@
           <t>Late at night, at the Han River, the eyes and ears of the reporters were focused on the story of someone waltzing alone, kneeling down, and performing a smoke dance.</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Step 1: 혼자 왈츠를 추다
-Step 2: Dancing to your own tune
-Step 3: In the late night, all eyes and ears of the reporters were focused on the story of dancing a waltz alone on the Han River, kneeling down and blowing smoke.</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>Late at night, the reporters' eyes and ears were focused on the story of someone dancing the waltz alone on the Han River, kneeling and doing a smoke trick.</t>
@@ -2128,13 +1976,7 @@
           <t>It has been reported that the sisters at Olive 'Bapblesyu' held a summer stair climbing competition to beat the heat, but caught attention by experiencing hot springs in the middle of summer.</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Step 1: 날리다
-Step 2: "beat the heat" 
-Step 3: In Olive's show "Bap Bless You," the sisters hosted a summer stair-climbing competition to beat the heat, and reportedly drew attention for their extraordinary midsummer hot spring experience.</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>It is reported that the Olive "Bobless You" sisters held a summer stair-climbing competition to beat the heat, and drew attention as they experienced an unexpected hot spring in the middle of summer.</t>
@@ -2189,13 +2031,7 @@
           <t>It was an amazing experience that opened my eyes wide enough to make my dream come true.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Step 1: 눈이 번쩍 뜨이다
-Step 2: To open one's eyes
-Step 3: It was an amazing experience that opened my eyes to realizing my dream.</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>It was such an amazing experience that it felt like my eyes opened wide to make my dream come true.</t>
@@ -2250,13 +2086,7 @@
           <t>The place where the two people, both facing difficulties, were able to forge a lifelong connection was a rural church in Suncheon, South Jeolla Province.</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Step 1: 다리를 놓다
-Step 2: Bridge the gap
-Step 3: It was a rural church in Suncheon, Jeollanam-do, where two people who were like that could form a lifelong bond.</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>The place where those two people, who had been like that, could form a lifelong bond was at a rural church in Suncheon, Jeollanam-do.</t>
@@ -2311,13 +2141,7 @@
           <t>Dilkusha became state-owned in 63, but was not properly managed, allowing homeless people to take advantage and build nests everywhere.</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Step 1: 둥지를 틀다 (to build a nest)
-Step 2: Squat
-Step 3: Dilku Sha became state-owned in 63, but poorly managed, allowing homeless people to squat all over the place.</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>In 63, Dilucsha became state-owned, but proper management was not carried out and taking advantage of this loophole, homeless people settled and built nests all over the place.</t>
@@ -2372,13 +2196,7 @@
           <t>He said that because Seoul is too close to the Military Demarcation Line and the South Korean military is in a situation where they can no longer retreat, it is necessary for North Korea to make concessions.</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Step 1: 어쩔 줄 모르다 (not know what to do)
-Step 2: 다른 대안이 없다 (There is no alternative)
-Step 3: He said that since the South Korean military couldn't retreat any further as it was too close to the military demarcation line in Seoul, there was no alternative but to ask for concessions from North Korea.</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>He said that he is too close to the Military Demarcation Line in Seoul and because the South Korean military can no longer retreat, it is necessary for North Korea to make concessions.</t>
@@ -2433,13 +2251,7 @@
           <t>Usually, the saxophone leads the melody and the piano supports from behind.</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Step 1: "주선율을 끌고 가다"  
-Step 2: "To take the lead"  
-Step 3: Usually, when the saxophone takes the lead, the piano follows behind.</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>Typically, the saxophone leads the melody while the piano supports from behind.</t>
@@ -2498,13 +2310,7 @@
           <t>I got hit in the back of the head by Jon.</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Step 1: 뒤통수를 맞다 (get hit in the back of the head)
-Step 2: Get stabbed in the back
-Step 3: I got stabbed in the back by John.</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>I was backstabbed by John.</t>
@@ -2559,13 +2365,7 @@
           <t>The story is that the four sports broadcasting companies, whose plan to improve their deficit through a growing new media business fell through, turned their attention to KBO.</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Step 1: 무산되다 (someone's plan is thwarted)  
-Step 2: Hit a brick wall  
-Step 3: The plan to improve the deficit through a rapidly growing new media business was abandoned, and it is said that four sports broadcasters who had hit a brick wall turned their attention to the KBO.</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>The story is that the four sports broadcasters who failed to improve their deficit through a growing new media business have turned their backs on the KBO.</t>
@@ -2620,13 +2420,7 @@
           <t>By the way, this Montaju is so terrifying that it gives me shivers down my spine.</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Step 1: 오싹할 정도로
-Step 2: Give someone the creeps
-Step 3: By the way, this haunted house gives me the creeps to the point that my spine shivers.</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>By the way, this Montage is too scary to the point that it sends shivers down my spine.</t>
@@ -2681,13 +2475,7 @@
           <t>The loss of trust in education is due to various irregularities such as test paper leaks, allegations of professor's minor children co-authoring papers, etc.</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Step 1: 땅에 떨어지다 
-Step 2: Fall by the wayside 
-Step 3: Suspicions of test paper leakage and the professor's minor child co-authoring papers have eroded trust in education, causing it to fall by the wayside.</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>The loss of trust in education is attributed to various irregularities such as test leakage suspicions and the co-authoring of academic papers by professors' underage children.</t>
@@ -2746,13 +2534,7 @@
           <t>Anne is always late, and when I am late, she shamelessly blames and complains to many people. It's like a dog with poop on its body blaming a dog with mud on its body.</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Step 1: 똥 묻은 개가 겨 묻은 개를 나무란다  
-Step 2: "Pot calling the kettle black"  
-Step 3: Ann is always criticizing people for being late when she herself is late all the time. It's like the pot calling the kettle black.</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>Anne always talks shamelessly about people who are late, but she shamelessly goes around blaming others when she is late. It's like the pot calling the kettle black.</t>
@@ -2811,13 +2593,7 @@
           <t>Kim Sung-tae, the floor leader of the South Korean Conservative Party, also said, "We need to create transparent procedures, including receipt verification," and "There will be institutional improvements that align with the common sense and intentions of the people."</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Step 1: 투명한 절차를 만들어야 한다
-Step 2: The equivalent idiom in English is "to make something crystal clear."
-Step 3: Kim Sung-tae, the leader of the opposition party, also stated that "a transparent process, including providing receipts as evidence, must be established," and said, "there will be institutional improvements that align with common sense and the wishes of the people."</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>Kim Sung-tae, the floor leader of the main opposition party, said, "We must create transparent procedures, including providing receipts as evidence," and added, "There will be improvements to the system that are in line with the common sense and will of the people."</t>
@@ -2868,13 +2644,7 @@
           <t>I had my eye on that book.</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Step 1: 마음에 두다 (Literal meaning: Keep in mind)
-Step 2: Keep in mind
-Step 3: I kept that book in mind.</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>I had that book on my mind.</t>
@@ -2933,13 +2703,7 @@
           <t>I want a meeting with you that connects our hearts.</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Step 1: 마음이 통하다 (to have a meeting of minds)
-Step 2: To be on the same wavelength
-Step 3: I want to have a meeting with you where our minds are in agreement.</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>I want a meeting where our hearts connect.</t>
@@ -2990,13 +2754,7 @@
           <t>Actress Yang Jung-ah put an end to her 4-year marriage.</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Step 1: 마침표를 찍다
-Step 2: To draw a line under 
-Step 3: Actress Yang Jung-ah put a line under her 4-year marriage.</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>Actress Yang Jung-ah put a period to her four-year marriage.</t>
@@ -3055,13 +2813,7 @@
           <t>Taking the step forward to achieve both growth and distribution simultaneously, even reaching a dead end where both growth and distribution are blocked, the situation is too critical to wander around saying "This is the right place."</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Step 1: "막다른 골목에 이르다"
-Step 2: "Hit a wall" - cambridge.org
-Step 3: Even though taking steps towards achieving both growth and distribution is commendable, finding oneself at a dead-end street where growth and distribution are hindered and insisting, "This is the right way," makes the situation extremely critical.</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>The stride towards simultaneously achieving growth and distribution has come to a dead end where both growth and distribution are blocked, and wandering around saying "this is the right place" in this situation is too critical.</t>
@@ -3120,13 +2872,7 @@
           <t>In the case of SYNC's ICO project failing, they are preparing SYNCoinSure, a concept of insurance where participants can receive a refund of their invested amount.</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Step 1: 만에 하나
-Step 2: One in a million
-Step 3: In the rare case of an ICO project failing, SINGKO is preparing SINGCOINSHORE, a concept similar to insurance where participants can get a refund.</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>In the case of Syngco, they are preparing SyngcoinSure, which is a concept of insurance where participants can receive a refund of their participation amount if their ICO project fails.</t>
@@ -3181,13 +2927,7 @@
           <t>We also understand well that the expected quantity is just an estimate and not an official order quantity.</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Step 1: 말 그대로  
-Step 2: Literally speaking  
-Step 3: The expected quantity is, literally speaking, just an estimate, and we also know very well that it's not the official order quantity.</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>We also know that the estimated quantity is just that - an estimate, not an official order quantity.</t>
@@ -3238,13 +2978,7 @@
           <t>I bought it here, but is it reasonable that the parts are missing?</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Step 1: 말이 되나요
-Step 2: Does it make sense?
-Step 3: I bought it here, does it make sense that there are missing parts?</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>I bought it here, but does it make sense that there are missing parts?</t>
@@ -3295,13 +3029,7 @@
           <t>People who film UCC on YouTube do it very easily, but my body doesn't listen to me.</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Step 1: 말을 듣다  
-Step 2: Fall on deaf ears  
-Step 3: People who film UCC on YouTube do it very easily, but my body is not cooperative.</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>People who shoot UCC on YouTube do it very easily, but my body doesn't listen to me.</t>
@@ -3356,13 +3084,7 @@
           <t>"That house is something else, with two young children losing their parents at a young age and now facing financial difficulties as well." said the mother who was watching television.</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Step 1: 말이 아니다
-Step 2: There is no equivalent idiom in English. The figurative meaning of "말이 아니다" is to describe a situation that is beyond belief or too extreme. 
-Step 3: “That house is beyond words, they lost two children when they were young and now facing misfortune again, all from what I see on TV,” said the mother who was watching television.</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>“That house is something else, too. They lost two sons when they were young, and now seeing them suffer another tragedy.” said the mother who was watching television.</t>
@@ -3417,13 +3139,7 @@
           <t>Chairman Kim, while presiding over the discussion related to the ad hoc committee that afternoon, opened up by saying, "The most troubling issue for me during my month as chairman of the ad hoc committee was the pressure for personnel restructuring."</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Step 1: 말문을 열다
-Step 2: To open one's mouth
-Step 3: Chairman Kim opened his mouth by saying, "Being the chairman of the committee over the past month, the most troublesome issue for me was the pressure for personal reshuffling."</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>Kim, the chairperson of the committee, opened up by saying, "The most troubling issue for me while serving as the chairperson of the committee for the past month was the pressure for personnel reshuffling."</t>
@@ -3482,13 +3198,7 @@
           <t>A's parents of the primary school in Dalseong, Daegu were speechless after seeing self-harm scars on their child's body last year.</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Step 1: 말문이 막히다
-Step 2: "To be at a loss for words"
-Step 3: A's parents, whose child attends an elementary school in Dalseong, Daegu, were at a loss for words upon seeing self-harm wounds on their child's body last year.</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>The parents of A, who attends an elementary school in Dalseong-gun, Daegu, were speechless when they saw self-harm scars on their child's body last year.</t>
@@ -3543,13 +3253,7 @@
           <t>It goes without saying that calling homosexuality a sin in the Bible, and if homosexuality is allowed, it is clear that our society will be deeply entwined in cultural pathology.</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Step 1: 말할 것도 없다
-Step 2: It goes without saying
-Step 3: It goes without saying that calling homosexuality a sin in the Bible leads to our society being perceived as a cultural pathology if homosexuality is allowed.</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>It goes without saying that calling homosexuality a sin in the Bible, and if homosexuality is allowed, our society would inevitably become culturally pathological.</t>
@@ -3608,13 +3312,7 @@
           <t>The Provincial Assembly is taking a stance to hold legally responsible the cities and counties that refuse audits, while local governments are challenging the legality of the Provincial Assembly's administrative audit.</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Step 1: 반면  
-Step 2: "on the other hand"  
-Step 3: The council is taking a stance of legally holding accountable cities and counties that refuse audits, while local governments are pushing back, arguing that the council's administrative audits are actually illegal.</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>The provincial council takes the position of holding legally responsible the city or county that refuses the audit, while local governments are pushing back, claiming that the provincial council's administrative audit is actually illegal.</t>
@@ -3674,13 +3372,7 @@
           <t>In order to overcome the trade and technical barriers of the large economies in Europe, it is necessary for multiple member countries to come together and join forces.</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Step 1: 머리를 맞대다
-Step 2: Put your heads together
-Step 3: To overcome the trade and technical barriers in Europe with numerous member countries and enormous economic size, several countries need to put their heads together and join forces.</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>In order to overcome the trade technology barriers in Europe with a large economy and multiple member countries, it is necessary for many countries to come together and combine their strengths.</t>
@@ -3735,13 +3427,7 @@
           <t>First, they believe that we should abandon sitting in South Korea and making plans from the inside, and instead look at China.</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Step 1: 버리고 땅에 쓰다  
-Step 2: The grass is always greener on the other side  
-Step 3: First, he thinks we should abandon the notion of sitting domestically to think and plan and instead look to China.</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>The eldest brother believes that we should stop sitting idly in our country and planning, and instead look towards China.</t>
@@ -3796,13 +3482,7 @@
           <t>China also shows signs of arrogance, but compared to the United States, its stance is more complicated.</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Step 1: 결기를 보이고는 있다
-Step 2: show signs of frost
-Step 3: Although China does show signs of frost, its situation is more complicated compared to the United States.</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>While China also shows signs of rigidity, compared to the United States, its head (leadership) appears more complex.</t>
@@ -3857,13 +3537,7 @@
           <t>Upon seeing elderly female theater actors feeling uncomfortable standing in front of the video camera, the stage was set up as if laying down a cushion to make them feel at ease.</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Step 1: 무대를 마련하다
-Step 2: Roll out the red carpet
-Step 3: The elderly female theater actresses were uncomfortable standing in front of the video camera, so the stage was set out like rolling out the red carpet for them.</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>As elderly female theater actresses became uncomfortable standing in front of video cameras, the stage was set up as if laying a cushion for them.</t>
@@ -3918,13 +3592,7 @@
           <t>The more I see a child with a respiratory disease struggling to breathe, the more despondent I feel.</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Step 1: 면목이 없다  
-Step 2: Lose face  
-Step 3: I feel like losing face whenever I see a child struggling to breathe due to a lung disease.</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>It's heartbreaking to see a child struggling for breath due to a lung disease.</t>
@@ -3979,13 +3647,7 @@
           <t>There is no greater love than to lay down one's life for one's friends.</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Step 1: 자기 목숨을 버리다
-Step 2: To lay down one's life
-Step 3: "There is no greater love than to lay down one's life for a friend."</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>There is no greater love than to lay down one's life for one's friends.</t>
@@ -4042,9 +3704,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Step 1. "목 빠지게 기다리다"  
-Step 2. "wait for something anxiously"  
-Step 3. The master has returned with the long-awaited fourth album that we were eagerly waiting for.</t>
+          <t xml:space="preserve"> The master has returned with the long-awaited fourth album that we were eagerly waiting for.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4105,13 +3765,7 @@
           <t>Thank you for saying that, I am at a loss for words, I appreciate it.</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Step 1: 몸 둘 바를 모르겠습니다  
-Step 2: To be in two minds   
-Step 3: Thank you for saying that, I'm in two minds now.</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>Thank you for saying that, I'm not sure what to do with my body.</t>
@@ -4166,13 +3820,7 @@
           <t>Instead, study science diligently and hope that scientific thinking becomes ingrained in you.</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Step 1: 과학적 사고가 몸에 배다  
-Step 2: Have a head for science  
-Step 3: Instead, I hope you consistently study science so you can have a head for science.</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>Instead, I hope you study science consistently so that scientific thinking becomes ingrained in you.</t>
@@ -4223,13 +3871,7 @@
           <t>The agenda of the meeting is a demand for setting the date for the next party leader election since Kim Sung-tae's term as the current leader ends on December 11th.</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Step 1: 못 박으라는 요구
-Step 2: Nail down a date
-Step 3: The topic of discussion is a demand to nail down the date for the next party leader election, as Kim Sung-tae's term ends on December 11th.</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>The agenda for the meeting is a demand to set the date for the next floor leader election as Kim Sung-tae's term as the current floor leader is ending on December 11th.</t>
@@ -4282,9 +3924,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Step 1. 본선 진출팀이 없었다
-Step 2. to not make the cut
-Step 3. The Southeast Asian team did not make the cut for the main event in 2011 and 2015 Asian Cups, but in this expanded competition, Thailand, Philippines, and Vietnam made it to the main stage.</t>
+          <t xml:space="preserve"> The Southeast Asian team did not make the cut for the main event in 2011 and 2015 Asian Cups, but in this expanded competition, Thailand, Philippines, and Vietnam made it to the main stage.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4341,13 +3981,7 @@
           <t>The current liquor tax law, which imposes taxes based on the declared value, has been marching forward with the lure of a price of 10,000 won for 4 bottles of imported beer. However, it bowed down to wine, which transformed into a low-cost option by emphasizing cost-effectiveness.</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Step 1: 가성비를 앞세우다
-Step 2: "get more bang for your buck" 
-Step 3: Based on the current tax law that levies taxes based on the highest price, domestic beer, with a price of 10,000 won for 4 bottles, has been performing well, but it had to kneel before wine, which transformed into a lower-priced option by emphasizing getting more bang for your buck.</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>The current local tax law, which levies taxes based on the declared price, led imported beer to march triumphantly with an attractive price of 4 bottles for 10,000 won, but ultimately kneeled before low-cost wine, which transformed itself with cost-effectiveness.</t>
@@ -4402,13 +4036,7 @@
           <t>I also kept searching, but they said they are closing the door due to personal circumstances.</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Step 1: 문을 닫다  
-Step 2: to close the door  
-Step 3: I also searched continuously, but they said they were closing the door due to personal reasons.</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>So I kept looking for it, but apparently they are closing their doors due to personal reasons.</t>
@@ -4459,14 +4087,7 @@
           <t>The newspaper reported that comprehensive measures are needed to actively promote corporate innovation by lowering the barriers to entrepreneurship, as well as clearly providing growth incentives to executives and facilitating the sale or bankruptcy of businesses.</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Step 1: 낮추다 (lower)
-Step 2: Bring down to earth (lowering something to a more practical or realistic level)
-Step 3: The newspaper reported, "Comprehensive measures are needed to actively carry out corporate new life processes, providing clear growth incentives to managers, while lowering barriers such as promoting startups or handling business sales and bankruptcies."
-(Note: Although "bring down to earth" is not an exact idiom match, it captures the essence of lowering something to a more practical level.)</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>The newspaper reported, "Comprehensive measures are needed to actively promote the rejuvenation of businesses by lowering the barriers to entrepreneurship, mergers and acquisitions, bankruptcy proceedings, and clearly providing growth incentives to management."</t>
@@ -4525,13 +4146,7 @@
           <t>It is pointed out that the government provides financial support to families of suicide victims who have fallen below a certain income level, but the threshold is high and does not provide meaningful help.</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Step 1: 문턱이 높다  
-Step 2: The idiom "a high bar" means something is difficult to achieve or succeed at  
-Step 3: It is pointed out that although the government supports the families of suicide victims who have fallen below a certain income level, the high bar makes it not very practical help.</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>It is pointed out that the government provides living expenses to the families of those who have committed suicide after falling below a certain income level, but the threshold is high and does not provide substantial assistance.</t>
@@ -4588,9 +4203,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Step 1. 물이 넘다
-Step 2. Go down the drain
-Step 3. In that case, not only the 2 trillion dollar! large-scale national infrastructure project is expected to go down the drain, but also the immigration reform planned for this summer is likely to be derailed.</t>
+          <t xml:space="preserve"> In that case, not only the 2 trillion dollar! large-scale national infrastructure project is expected to go down the drain, but also the immigration reform planned for this summer is likely to be derailed.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4647,13 +4260,7 @@
           <t>The Lotte hitters persistently swung at the inside fastballs from the beginning of the game, but struggled with the curveball command and suffered from a batting slump.</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Step 1: 집요하게 몸쪽 빠른 공을 물다
-Step 2: Stick to one's guns
-Step 3: Lotte's hitters stubbornly stuck to hitting fastballs towards the inside since the beginning of the game, but they struggled with curveball pitches and ended up in a hitting slump.</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>In the early stages of the game, the Lotte batting lineup relentlessly attacked fastballs on the inside, but struggled with curveball placement and ended up with a poor hitting performance.</t>
@@ -4708,13 +4315,7 @@
           <t>He ate seaweed soup during the civil service exam that he had been preparing for two years.</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Step 1: 미역국을 먹었다 (literal meaning: eat seaweed soup) 
-Step 2: "to hit the jackpot" (similar meaning: to experience great success) 
-Step 3: He hit the jackpot in the civil service exam he had been preparing for over two years.</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>He ate seaweed soup during the civil service exam that he had been studying for over two years.</t>
@@ -4771,9 +4372,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Step 1. 신뢰에 발목 잡히다 (to have one's ankle caught in trust)
-Step 2. To have the rug pulled out from under someone
-Step 3. I completely trusted her, but it felt like having the rug pulled out from under me.</t>
+          <t xml:space="preserve"> I completely trusted her, but it felt like having the rug pulled out from under me.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4830,13 +4429,7 @@
           <t>I applied with the mindset that I had to lower my standards, but I got accepted.</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Step 1: 밑져야 본전이다
-Step 2: "No pain, no gain"
-Step 3: I applied with the mindset that "no pain, no gain," and I got accepted.</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>I applied with the mindset that you have to risk it to win it, and I got accepted.</t>
@@ -4891,13 +4484,7 @@
           <t>She cheated us.</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Step 1: "바가지를 씌우다" is the idiom.
-Step 2: An equivalent idiom in English is "pulling the wool over someone's eyes."
-Step 3: She pulled the wool over our eyes.</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>She pulled the wool over our eyes.</t>
@@ -4952,13 +4539,7 @@
           <t>The two summits between President Moon Jae-in and North Korean leader Kim Jong-un have created a reconciliatory atmosphere of cooperation between the two Koreas, injecting a wind of change into the long-standing summit format.</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Step 1: 바람을 불어넣다
-Step 2: Change the wind direction
-Step 3: The two summit meetings between President Moon Jae-in and North Korean leader Kim Jong-un have injected a wind of change into the long-standing dialogue methods, creating an atmosphere of reconciliation and cooperation between the two Koreas.</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>The two summits between President Moon Jae-in and North Korean leader Kim Jong-un have created a reconciliatory cooperation atmosphere between North and South Korea, bringing a wind of change to the long-standing summit format.</t>
@@ -5013,13 +4594,7 @@
           <t>I think you need to get some fresh air.</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Step 1: 바람을 쐬다 (idiom)  
-Step 2: "to get some fresh air"  
-Step 3: In my opinion, you need to get some fresh air.</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>I think you need to get some fresh air.</t>
@@ -5078,13 +4653,7 @@
           <t>As the attitudes of employees changed, KSS Shipping's performance sharing system brought a breath of fresh air to corporate management.</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Step 1: 자세가 바뀌다  
-Step 2: Turn over a new leaf  
-Step 3: As the employees' attitude changed, the profit-sharing system at KSS Shipping brought a breath of fresh air to the company's management.</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>As the attitudes of employees changed, the performance sharing system of KSS Shipping has brought a new breeze to corporate management.</t>
@@ -5139,13 +4708,7 @@
           <t>Even if there is someone lying on the street, people typically do not even bother to glance at them and instead hurry their steps, or people just walk past with their eyes fixed on the ground is the prevailing behavior.</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Step 1: 발길을 재촉하다
-Step 2: "give the cold shoulder"
-Step 3: Even if there are people in need on the streets, most people just walk by without even giving them a second glance or, as the saying goes, give them the cold shoulder.</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>Even if there is a person lying on the street, most people just hurry past without even giving a glance, or a person tinkering with their phone and just kicking their feet while walking by is the majority.</t>
@@ -5200,13 +4763,7 @@
           <t>Fans rushed to the airport arrival gate to get a closer look at Kim Hyun-joong, leaving no room to even move.</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Step 1: 발 디딜 틈이 없다 
-Step 2: There is no room to breathe
-Step 3: Fans ran towards the airport gate to get a closer look at Kim Hyun-joong, there was no room to breathe.</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>The airport arrival gate was packed with fans running to get a closer look at Kim Hyun Joong, leaving no room to even step foot.</t>
@@ -5261,13 +4818,7 @@
           <t>Over a thousand of our tourists are currently stranded in Saipan.</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Step 1: 발이 묶이다 
-Step 2: "to have one's hands tied" is the equivalent idiom in English. 
-Step 3: In Saipan, the feet of our tourists, around a thousand, were tied.</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>Around one thousand of our tourists' feet have been tied in Saipan.</t>
@@ -5326,13 +4877,7 @@
           <t>Gyeonggi-do Yongin city officials rolled up their sleeves to establish a clean culture.</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Step 1: 발 벗고 나서다
-Step 2: Roll up one's sleeves
-Step 3: Government officials in Yongin, Gyeonggi Province, have rolled up their sleeves to establish a culture of integrity.</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>Government officials in Yongin City, Gyeonggi Province, rolled up their sleeves to establish a culture of integrity.</t>
@@ -5387,13 +4932,7 @@
           <t>It is possible because of the efforts of President Han Je-woong, who moves quickly to carefully select products to meet the needs of regular customers and always brings high-quality products.</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Step 1: 발 빠르다
-Step 2: "to be quick on the uptake"
-Step 3: Thanks to the efforts of the representative Han Je-woong, who is quick on the uptake, in selecting products rigorously to meet the needs of regular customers and always bringing high-quality products, it is possible.</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>It is possible because of the efforts of President Han Jegung, who quickly moves to select products strictly tailored to the needs of regular customers and always brings high-quality products.</t>
@@ -5452,13 +4991,7 @@
           <t>The controversy arose due to cost issues, and the Department of Education decided to hold a public hearing in May to gather opinions and make a decision after listening to the opinions of schools and others.</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Step 1: 발을 뺐다  
-Step 2: Pulling feet  
-Step 3: The decision was delayed due to cost issues and controversies. The local education office decided to hold a public hearing in May to gather opinions and listen to the opinions of schools before making a decision.</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>Due to the controversy along with the cost issue, the local education office has decided to hold a public hearing in May to gather opinions and listen to the opinions of schools, and make a decision.</t>
@@ -5513,13 +5046,7 @@
           <t>Ahead of the upcoming protest denouncing the management, it seems that Asiana Airlines is putting great efforts into internal rectification after being caught in a fire on the sole of their foot.</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Step 1: 발등에 불이 떨어지다 (to have a fire lit under one's feet)
-Step 2: To have a fire lit under one's feet
-Step 3: As the Asian Airlines company faces an imminent protest to condemn its management, it seems they are now working hard internally as a fire has been lit under their feet.</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>As Asiana Airlines is facing a crisis just before a rally to denounce its management, it seems that the company is making every effort to handle the situation internally.</t>
@@ -5580,9 +5107,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Step 1. 꼬리표를 따라다니다  
-Step 2. To be a thorn in one's side  
-Step 3. Despite having outstanding talent, injuries big and small always followed Storage like a thorn in their side in their athletic career.</t>
+          <t xml:space="preserve"> Despite having outstanding talent, injuries big and small always followed Storage like a thorn in their side in their athletic career.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5643,13 +5168,7 @@
           <t>Because national issues can arise day and night without discrimination, it is also a problem to be tied to work 24 hours a day.</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Step 1: 밤낮을 가리지 않다 (night and day not discriminating)
-Step 2: Around the clock 
-Step 3: "Because the national issues are exploding without discrimination day and night, it's also a problem to be tied up with work around the clock."</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>Because national issues can erupt day and night, it is also a problem to be tied up in work 24 hours a day.</t>
@@ -5700,13 +5219,7 @@
           <t>Even as the boss, I would come in early every morning and work until dawn every day. And because the boss did so, the employees were also accustomed to working overtime as if it were eating a meal.</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Step 1: 야근을 밥 먹다
-Step 2: Burning the midnight oil
-Step 3: As a boss, I was the only one who came to work early in the morning and worked until the early hours, and since the boss was like that, the employees were used to burning the midnight oil as if it were a meal.</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>Even as the boss, I would arrive early in the morning and work until dawn every day. And since I was like that, my employees were also accustomed to working overtime as if it were eating a meal.</t>
@@ -5757,13 +5270,7 @@
           <t>He felt nauseous when his colleague got promoted before him.</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Step 1: 배가 아프다 (literally means "to have a stomachache")
-Step 2: "To feel sore" 
-Step 3: He felt sore when his colleague got promoted before him.</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>He got a stomachache when his coworker got promoted before him.</t>
@@ -5818,13 +5325,7 @@
           <t>Another reason is that if you study again, you will quickly get hungry, so it is much more convenient to fill your stomach with a convenience store or vending machine.</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Step 1: 허기지다
-Step 2: "To work up an appetite" 
-Step 3: Furthermore, by studying again then getting hungry, it's much more convenient to fill your stomach at the school store or vending machine.</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>When you study again, you quickly become hungry, so it is much more convenient to fill your stomach with a snack bar or a vending machine.</t>
@@ -5883,13 +5384,7 @@
           <t>The more serious the actors on stage are, the more captivated the audience becomes.</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Step 1: 배꼽을 잡다 (hold one's breath)
-Step 2: Hold one's breath
-Step 3: The more serious actors are on stage, the more the audience will hold their breath.</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>The more serious actors are on stage, the more the audience holds their breath.</t>
@@ -5950,9 +5445,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Step 1. 백기를 들기
-Step 2. To wave the white flag
-Step 3. The situation requires compromise and mediation rather than waving the white flag for either side, hence setting principles for a solution is crucial.</t>
+          <t xml:space="preserve"> The situation requires compromise and mediation rather than waving the white flag for either side, hence setting principles for a solution is crucial.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6013,13 +5506,7 @@
           <t>Everyone knows that even a hundred people gathering can lighten a load.</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Step 1: 백짓장도 맞들면 낫다는 것  
-Step 2: The more the merrier  
-Step 3: Everyone knows that the more, the merrier.</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>Even a white crow is better when others help carry it.</t>
@@ -6080,9 +5567,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Step 1. 불신의 벽을 쌓다  
-Step 2. Build a wall of distrust  
-Step 3. Considering the long-standing wall of distrust between North and South Korea and between North Korea and the U.S., expecting a quick resolution of the North Korean nuclear issue and the establishment of a peace regime on the Korean Peninsula is abnormal.</t>
+          <t xml:space="preserve"> Considering the long-standing wall of distrust between North and South Korea and between North Korea and the U.S., expecting a quick resolution of the North Korean nuclear issue and the establishment of a peace regime on the Korean Peninsula is abnormal.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6143,13 +5628,7 @@
           <t>The reason why there are criticisms that the investigation is being passive and hitting a wall due to core evidence destruction, is because the incident involved key personnel of the administration or key evidence that makes it difficult for the investigation to progress.</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Step 1: 부딪히다
-Step 2: Hit a brick wall
-Step 3: They are hitting a brick wall in the investigation, which is why there are criticisms that key figures in power involved in the incident are not being proactively investigated.</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>The reason why criticism arises that the investigation is being passive due to hitting a wall that is difficult to overcome, such as core evidence being destroyed or the involvement of key figures in power, is because of the situation.</t>
@@ -6206,9 +5685,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Step 1. "병 주고 약 주다" is the idiom.
-Step 2. There is no equivalent idiom in English for "병 주고 약 주다." This expression means "giving both the disease and the medicine," which figuratively refers to causing issues or problems and then trying to fix them at the same time.
-Step 3. Are you done now? Are you trying to cause problems and solve them at the same time?</t>
+          <t xml:space="preserve"> Are you done now? Are you trying to cause problems and solve them at the same time?</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6265,13 +5742,7 @@
           <t>Industry predictions that the welfare ministry's regulations will only take effect after the two-year regulatory sandbox period have also been proven wrong.</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Step 1: 빗나가다
-Step 2: "miss the boat" - be too slow to take advantage of an opportunity
-Step 3: The industry's prediction, which expected that the regulations by the Ministry of Welfare would only come into full force after the 2-year trial period of sandbox regulation, also nicely missed the boat.</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>Industry predictions that the Ministry of Welfare's guidelines will be fully implemented after the two-year regulatory sandbox period have also been proven to be off the mark.</t>
@@ -6326,13 +5797,7 @@
           <t>Do we have eyes to catch rocks well?</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Step 1: "눈이 있어서" 
-Step 2: "have an eye for" 
-Step 3: "Did we do a good job of picking the lucky charm because we have an eye for it?"</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>Thanks to our eyes, we were able to easily dodge the pitfall, don't you think?</t>
@@ -6387,13 +5852,7 @@
           <t>Goi-do, the Chairman of the Gwadi Party, recently returned from a visit to South America in defiance of the Supreme Court's travel ban order, but authorities did not arrest him.</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Step 1: 어깨동무하다
-Step 2: Stand shoulder to shoulder
-Step 3: Geoido's chairman recently returned from his South American tour as if he had defied a recent travel ban by the Supreme Court, but the authorities did not arrest him.</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>Even Goi, the chairman, recently returned from his South American tour as if nothing happened after defying the Supreme Court's travel ban, but the authorities did not arrest him.</t>
@@ -6444,13 +5903,7 @@
           <t>It is as clear as day that both professors and students will suffer losses, and the quality of education will significantly deteriorate.</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Step 1: 불 보듯 뻔한 일이다  
-Step 2: As clear as day  
-Step 3: Professors and students alike will inevitably suffer losses, and the quality of education will deteriorate significantly, as clear as day.</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>Both professors and students can only suffer losses, and it is as clear as day that the quality of education will significantly decline.</t>
@@ -6501,13 +5954,7 @@
           <t>In a situation where they are becoming familiar with each other, a fiery strategic battle between directors is anticipated as the final laughing team is watched closely to see where it will be.</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Step 1: 불꽃 튀는 지략 싸움  
-Step 2: A battle of wits  
-Step 3: In a situation where they are likely to become familiar with each other, a battle of wits between the directors is foreshadowed, raising curiosity as to which team will have the last laugh.</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>In a situation where they are likely to become familiar with each other, amidst the heated battle of wits between directors, the team that has the last laugh will be closely watched to see where they will end up.</t>
@@ -6558,13 +6005,7 @@
           <t>Even among graduates, the name of a teacher who harassed students is mentioned, leading to speculation that this case recently revealed is just the tip of the iceberg.</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Step 1: '빙산의 일각'
-Step 2: Tip of the iceberg
-Step 3: The name of the teacher who engaged in sexual harassment among graduating students is being mentioned, leading to the idea that the cases revealed this time in and around the school are just the tip of the iceberg.</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>Even among graduates, there are suggestions that the recently revealed case of a teacher who engaged in sexual harassment is just the tip of the iceberg in and around the school.</t>
@@ -6623,13 +6064,7 @@
           <t>You're a true fan from birth. I pray you will see the light someday.</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Step 1: 모태 팬이다  
-Step 2: Born and bred  
-Step 3: So you're born and bred a fan. Hopefully, you'll see the light someday.</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>You are a die-hard fan indeed. I hope you will see the light one day.</t>
@@ -6688,13 +6123,7 @@
           <t>The first is because outpatient directors are breaking their bones.</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Step 1: 뼈 빠지게 하다
-Step 2: Work one's fingers to the bone
-Step 3: The first reason is that the chairpersons of the committees are working their fingers to the bone.</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>The first reason is that the former board members are working tirelessly.</t>
@@ -6745,13 +6174,7 @@
           <t>He promised "to make every effort with a resolute determination to create a safe and free society where you can enjoy your daily life without fear of illegal filming and distribution, without forgetting the vivid voices you raised."</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Step 1: 뼈를 깎는
-Step 2: "Cutting the edge off" - to put a lot of effort and sacrifice into achieving something.
-Step 3: He also promised, "With a determination to shed blood and sweat to create a safe and free society where you can enjoy your everyday life without fear of illegal filming and distribution, keeping your vivid voices in mind."</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>I promised, "With a determined heart to create a safe and free society where you can enjoy your daily life without fear of illegal filming and distribution by not forgetting the vivid voices you raised."</t>
@@ -6802,13 +6225,7 @@
           <t>To dispel the deep-rooted mistrust of the National Pension Service, it is pointed out that efforts should be made to strengthen the transparency of fund management and increase independence from capital and government.</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Step 1: 뿌리 깊은 불신  
-Step 2: Deep-seated distrust  
-Step 3: To dispel deep-seated distrust in the national pension system, there are calls to quickly enhance the transparency of fund management and increase independence from capital and government control.</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>In order to alleviate deep-rooted skepticism about the National Pension Service, it is pointed out that efforts need to be made to enhance the transparency of fund management and increase independence from capital and power quickly.</t>
@@ -6861,9 +6278,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Step 1. 회계 비리 뿌리뽑다
-Step 2. Root out financial irregularities
-Step 3. The plan is to prioritize applying Edufine to kindergarten of a certain scale next year, and then require all kindergartens to use it by 2020 to root out financial irregularities.</t>
+          <t xml:space="preserve"> The plan is to prioritize applying Edufine to kindergarten of a certain scale next year, and then require all kindergartens to use it by 2020 to root out financial irregularities.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6924,13 +6339,7 @@
           <t>I broke up with my girlfriend. It seemed like the love had faded.</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Step 1: 사랑이 식다 (love cooling down)
-Step 2: "The spark is gone"
-Step 3: I broke up with my girlfriend. It felt like the spark is gone.</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>I broke up with my girlfriend. It seemed like the love had faded.</t>
@@ -6985,13 +6394,7 @@
           <t>At the time, five naval officers testified about the helicopter shooting, and criticized the memoir of Mr. Jeon, who claimed that there was no helicopter shooting, as a blatant lie.</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Step 1: 회고록 내용은 새빨간 거짓말이라고 비난하다
-Step 2: to cry wolf
-Step 3: At that time, five navy officers including Commander B refuted the helicopter shooting testimony and criticized Mr. Jeon's memoir as crying wolf.</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>At the time, five naval officers, including Admiral Jeon, accused the helicopter shooting, and criticized the memoirs of former President Lee as blatant lies for denying the helicopter shooting.</t>
@@ -7050,13 +6453,7 @@
           <t>During the Japanese colonial period, there was a family that risked their lives in the independence movement and the history of faith, which took place in Samnye, Jeollabuk-do, Manchuria, and Hamgyeong Province in the northern part of Korea.</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Step 1: 서슬 퍼리다 (to be fierce and harsh)   
-Step 2: To be at daggers drawn 
-Step 3: During the harsh Japanese colonization era, there was a family that continued the history of independence movements and faith at daggers drawn in Samnye in Jeonbuk and Manchuria, and Hamgyeong Province in the North.</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>There is a household that continued the history of independence movements and faith by risking their lives on the stage of Samnye, Manchuria, and North Hamgyeong Province during the brutal Japanese colonial era.</t>
@@ -7115,13 +6512,7 @@
           <t>You're looking for Mr. Kim in Seoul even though you don't know his phone number.</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Step 1: "김서방 찾기"
-Step 2: "Looking for a needle in a haystack"
-Step 3: "Searching for Mr. Kim in Seoul without even knowing his phone number is like looking for a needle in a haystack."</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>They say they're looking even without knowing the phone number. It's like looking for Mr. Kim in Seoul.</t>
@@ -7180,13 +6571,7 @@
           <t>With the same pragmatism and restraint as his predecessor, he pursued a bold politics that did not incite conflict and division by following ideologies or factions to the end.</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Step 1: 이념이나 진영을 좇다
-Step 2: Stick to one's guns
-Step 3: Along with clear-headedness, he engaged in principled politics, sticking to his guns without fomenting conflict and division.</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>With the same frankness and integrity, he pursued his ideals and principles to the end without fueling conflict and division, practicing bold politics.</t>
@@ -7245,13 +6630,7 @@
           <t>Progressive composers of the minority struggled to establish a national music language suitable for the new era, but their voices were drowned out by the stark reality of division.</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Step 1: 몸부림쳤다
-Step 2: "to beat one's head against a brick wall" 
-Step 3: The few progressive composers struggled to establish a national musical style suitable for the new era, but their efforts came to naught in the face of the stark reality of division.</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>Only a few progressive composers struggled to establish a national musical language suitable for the new era, but their efforts were drowned out in the face of the stark reality of division.</t>
@@ -7298,13 +6677,7 @@
           <t>Heart disease, cerebrovascular disease, and pneumonia each ranked 2nd to 4th, but even when combining the number of people who died from these diseases, they did not surpass cancer, which ranked 1st in terms of the number of people who left this world.</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Step 1: 차지하다 (take up)
-Step 2: take the lead
-Step 3: Heart disease, cerebrovascular disease, and pneumonia ranked 2nd to 4th, but even combined, the number of people who died from these diseases did not reach the top spot, which was taken by cancer.</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>Heart disease, cerebrovascular disease, and pneumonia each ranked 2nd to 4th, but even when the number of people who died from these diseases is combined, it did not surpass the number of people who passed away from cancer, which ranked 1st in the world.</t>
@@ -7359,13 +6732,7 @@
           <t>When women start leading, the world changes.</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Step 1: 이끌다
-Step 2: When the cat's away, the mice will play.
-Step 3: When women start to lead, the world changes.</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>When women start to lead, the world changes.</t>
@@ -7424,13 +6791,7 @@
           <t>Roughly 30 years ago, a collection of about twenty books that I had as a college student has now exploded into tens of thousands of books and has become incalculable.</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Step 1: 소장도서가 지금은 수만권으로 불어나 셀 수 없을 지경이 됐다
-Step 2: 물이 넘치다
-Step 3: Around 30 years ago during his university days, he had just about 20 or so books in his collection, but now it's said that his collection has grown to tens of thousands, to the point where it's overflowing like a river.</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>It is said that the collection of books that was about twenty volumes during his college years roughly 30 years ago has now ballooned into tens of thousands of volumes and is almost impossible to count.</t>
@@ -7485,13 +6846,7 @@
           <t>Gyeonggi Province rolled up its sleeves to support education projects in South American countries.</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Step 1: 팔소매를 걷어 붙이다
-Step 2: Roll up one's sleeves
-Step 3: Gyeonggi Province rolled up its sleeves to support education projects in South American countries.</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>Gyeonggi Province threw its weight behind supporting education projects in South American countries.</t>
@@ -7546,13 +6901,7 @@
           <t>Physically, another reason why the government is scrambling is that if the joint investigation goes beyond November, it may be difficult to hold groundbreaking ceremonies for railway-road connections and modernization by the end of this year.</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Step 1: 속을 끓이다  
-Step 2: "to stir up the pot"  
-Step 3: Physically, if the joint investigation is delayed past November, it may be practically difficult for the government to hold the groundbreaking ceremony for the railway-road connection and modernization within this year, which is one reason the government is stirring up the pot.</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>Physically, the government's reason for being in a hurry is that if the joint investigation goes beyond November, it may be practically difficult to hold groundbreaking ceremonies for the railway-road connection and modernization within this year.</t>
@@ -7609,9 +6958,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Step 1. 속 시원한 
-Step 2. "Give sb the cold shoulder" (말문을 열지 않다)
-Step 3. I asked the management company, but they didn't give me a clear answer about why they sell limited editions that even make fans stay up all night, and they didn't even know when the fans started lining up.</t>
+          <t xml:space="preserve"> I asked the management company, but they didn't give me a clear answer about why they sell limited editions that even make fans stay up all night, and they didn't even know when the fans started lining up.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7668,13 +7015,7 @@
           <t>The record-breaking heatwave is causing North Gu's iconic vacation spot, Daecheoncheon, in the western part of Busan to become so dried up that the riverbed is being exposed, sparking concerns within the local government.</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Step 1: 속을 태우다
-Step 2: "to rub someone the wrong way"
-Step 3: The famous destination Daechuncheon in the western Busan area is drying up to the extent that the bottom of the valley is exposed, which is rubbing the local government the wrong way.</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>As the record-breaking heatwave continues, the popular vacation spot of Buk-gu Daecheongcheon, representing the western part of Busan, is drying up to the point where the riverbed is being exposed. This has sparked concerns within the district office.</t>
@@ -7725,13 +7066,7 @@
           <t>North Korean Supreme Leader Kim Jong-un and US President Donald Trump are walking towards each other, reaching out their hands to each other, at the Capella Hotel on Sentosa Island in Singapore during the North Korea-US summit on June 12th.</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Step 1: 손을 내밀다
-Step 2: Extend an olive branch
-Step 3: Kim Jong-un, Chairman of North Korea, and Donald Trump, President of the United States, are extending an olive branch to each other as they walk towards each other at the North Korea-U.S. summit held on June 12th at Capella Hotel on Sentosa Island, Singapore.</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>On the 12th, North Korean leader Kim Jong-un and U.S. President Donald Trump walked towards each other, extending their hands, during the North Korea-U.S. summit at the Capella Hotel on Sentosa Island in Singapore.</t>
@@ -7786,13 +7121,7 @@
           <t>In such a situation, the Democratic Party decided to withdraw their support.</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Step 1: 손을 뗀다  
-Step 2: Wash one's hands of  
-Step 3: In that situation, the Democratic Party washed their hands of it.</t>
-        </is>
-      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>In such a situation, the Democratic Party withdrew their support, resulting in the outcome.</t>
@@ -7851,13 +7180,7 @@
           <t>However, if you keep trying a few more times, you will eventually get the hang of managing your current thoughts.</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Step 1: 머리를 관리하는 방법이 손에 익다
-Step 2: Practice makes perfect
-Step 3: Even so, if you keep trying a few more times, you'll eventually become familiar with how to manage your thoughts.</t>
-        </is>
-      </c>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>However, if you keep trying a few more times, you will eventually become familiar with how to manage your hair right now.</t>
@@ -7912,13 +7235,7 @@
           <t>It is a company that stands out among the sellers of Japanese karaoke machines.</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Step 1: 다섯 손가락 안에 드는  
-Step 2: "stand head and shoulders above"  
-Step 3: Among the sellers of Japanese karaoke machines, they stand head and shoulders above the rest.</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>We are a company that stands out among the suppliers of Japanese karaoke machines.</t>
@@ -7969,13 +7286,7 @@
           <t>"The Taebaeksan National Snow Flower Climbing Competition" is a competition that winter mountain climbing enthusiasts nationwide eagerly anticipate all year round, with the reputation of Taebaeksan's unique beauty covered in white snow.</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Step 1: 손꼽아 기다리다  
-Step 2: "count down the days" and "wait with bated breath"  
-Step 3: 'The 'Taebaeksan National Snowflake Climbing Competition' is an event that winter climbing enthusiasts nationwide count down the days for all year round, and it has gained a reputation for the unique beauty of Taebaeksan covered in white snow in winter.'</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>The 'Taebaeksan National Snow Flower Climbing Competition' is a highly anticipated event for winter hiking enthusiasts nationwide, who eagerly await it throughout the year. The competition has gained reputation for the unique beauty of Taebaeksan covered in white snow during the winter.</t>
@@ -8030,13 +7341,7 @@
           <t>In this way, the Super League has changed its foreign player policy every season like flipping over the palm of one's hand in response to the rapidly changing landscape in recent years.</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Step 1: 손바닥 뒤집다  
-Step 2: Change something at the drop of a hat  
-Step 3: Just like this, the Super League has changed their foreign player policy every season at the drop of a hat over the past few years.</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>In this way, like flipping the palm of a hand, the Super League has been changing its foreign player policy every season in accordance with the rapidly changing landscape over the past few years.</t>
@@ -8095,13 +7400,7 @@
           <t>Although it is still a bureaucratic system, it is said that now there is a good cooperation with NGOs when it comes to cracking down on bear farms.</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Step 1: 손발이 잘 맞다
-Step 2: To be on the same page
-Step 3: The bureaucratic system is still old-fashioned, but nowadays it is said that if you step out to inspect bear farms, NGOs are on the same page and working well together.</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>Although still a bureaucratic system, it is said that now it has reached a point where it can cooperate well with NGOs in cracking down on illegal bear farms.</t>
@@ -8160,13 +7459,7 @@
           <t>From the start, both the team that worked well together and the director had the desire and passion to do their best until the end. We all enjoyed working together.</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Step 1: 손발을 맞추다  
-Step 2: Be in sync  
-Step 3: The team that was in sync from the start, we are happy to go together, and the coach also had a desire and passion to do his best until the end.</t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>From the beginning, the team that was synchronized in their actions going together felt good for us, and the coach also had the desire and passion to do things properly to the end.</t>
@@ -8225,13 +7518,7 @@
           <t>I was unable to focus on anything all day because I was worried about you.</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Step 1: 손에 잡히다
-Step 2: To be all fingers and thumbs
-Step 3: I was all fingers and thumbs all day worrying about you.</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>I couldn't focus on my work all day because I was worried about you.</t>
@@ -8278,13 +7565,7 @@
           <t>"I will take care of the arrangements if that meeting happens."</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Step 1: 성사되다 (to be realized)
-Step 2: "When pigs fly" (to describe something that will never happen)
-Step 3: "When pigs fly, I'll hold the reins in my hands if that meeting actually happens."</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>If that meeting comes through, I will do my part to support it.</t>
@@ -8343,13 +7624,7 @@
           <t>It is pointed out that abandoning rabbits in the park is a fundamental problem, but Seocho-gu, which has neglected management, cannot be free from responsibility.</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Step 1: 손을 놓고 있다
-Step 2: Drop the ball
-Step 3: Seocho-gu is criticized for not taking responsibility for releasing rabbits into the park, which is a fundamental issue.</t>
-        </is>
-      </c>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>The fundamental issue is abandoning rabbits in the park, but it is pointed out that even Seocho-gu, which is neglecting the management, cannot be free from responsibility.</t>
@@ -8406,9 +7681,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Step 1. 손을 맞잡다
-Step 2. shake hands
-Step 3. The Daejeon Techno Park (TP) and the Army Logistics Command joined hands to expand opportunities for the participation of local small and medium-sized enterprises that possess technology related to the Fourth Industrial Revolution in developing parts localization and nurturing regional defense industries.</t>
+          <t xml:space="preserve"> The Daejeon Techno Park (TP) and the Army Logistics Command joined hands to expand opportunities for the participation of local small and medium-sized enterprises that possess technology related to the Fourth Industrial Revolution in developing parts localization and nurturing regional defense industries.</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8465,13 +7738,7 @@
           <t>Efforts were made to clean the market environment, such as rigorously cleaning the market ceiling that had not been touched before.</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Step 1: 손이 닿지 않다 (cannot reach)
-Step 2: Out of reach
-Step 3: They made efforts to renovate the market environment, including a thorough cleaning of the ceiling, which was out of reach before.</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
           <t>Efforts were made to revitalize the market environment, including cleaning the market ceiling that had never been touched.</t>
@@ -8530,13 +7797,7 @@
           <t>Everyone arrived at the accommodation, but Baek Il-seop sat at a nearby café catching his breath.</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Step 1: 돌리느라
-Step 2: "to catch one's breath" 
-Step 3: Everyone arrived at the accommodation, but Baek Ilsup sat down at a nearby café to catch his breath.</t>
-        </is>
-      </c>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
           <t>Everyone arrived at the accommodation, but Baek Il-seop sat at a nearby cafe to catch his breath.</t>
@@ -8595,14 +7856,7 @@
           <t>The heat emanating from the dense crowd makes it hard to breathe.</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Step 1: 밀집한 군중이 뿜어내는 열기에 숨이 턱 막힌다 is an idiom.
-Step 2: The equivalent idiom in English is "to feel like a fish out of water."
-Step 3: The stifling heat emitted by the dense crowd makes it hard to breathe.
-</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
           <t>The stifling heat emitted by the dense crowd makes it hard to breathe.</t>
@@ -8657,13 +7911,7 @@
           <t>With minimum wage and interest rates sharply rising, there is a need for this policy to alleviate the struggles of small business owners facing crisis, making it an inevitable aspect of the situation.</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Step 1: 숨통을 틔다
-Step 2: To ease the burden
-Step 3: With both the minimum wage and interest rates rising sharply, there is an inevitable aspect to this plan that aims to ease the burden on struggling self-employed individuals.</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
           <t>With the minimum wage and interest rates both rising sharply, there is a necessary aspect to this policy in terms of the need to relieve struggling self-employed individuals.</t>
@@ -8722,13 +7970,7 @@
           <t>But somehow, before I knew it, I didn't realize how quickly time was passing.</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Step 1: 시간 가는 줄 모르다 
-Step 2: Not realize how fast time flies 
-Step 3: However, before I knew it, I didn't realize how fast time was flying by.</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
           <t>But before I knew it, I lost track of time.</t>
@@ -8783,13 +8025,7 @@
           <t>Many experts point out that the messenger notification sound ringing unexpectedly during working hours can lead to more than just a simple work interruption, but can lead to stress-related illnesses.</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Step 1: 업무 방해
-Step 2: Business is business
-Step 3: Constantly ringing messenger notification during working hours is not just a disruption to work, it may lead to stress-related health issues, as many experts point out.</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>Many experts point out that the messenger notification sound that rings incessantly during working hours can lead not only to work disruption, but also to stress-related illnesses.</t>
@@ -8840,13 +8076,7 @@
           <t>They say the beginning is half the battle, so I registered at a driving school to get my driver's license.</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Step 1: 시작이 반이다  
-Step 2: "A good beginning is half the battle."  
-Step 3: "They say a good beginning is half the battle, so I enrolled in a driving school to get my license."</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
           <t>They say that starting is half the battle, so I enrolled in a driving school to get my license.</t>
@@ -8905,13 +8135,7 @@
           <t>Climbing Hallasan Mountain is like a piece of cake.</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Step 1: "식은 죽 먹기"
-Step 2: "A piece of cake" 
-Step 3: Climbing Hallasan is a piece of cake.</t>
-        </is>
-      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
           <t>Climbing Hallasan is a piece of cake.</t>
@@ -8962,13 +8186,7 @@
           <t>Do not worry, just enjoy your time with your mother.</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Step 1: 신경 쓰다
-Step 2: Don't sweat the small stuff
-Step 3: Just relax and enjoy your time with your mother.</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
           <t>Yes. Don't worry and enjoy your time with your mother.</t>
@@ -9027,13 +8245,7 @@
           <t>My heart beats fast every day because of that these days.</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Step 1: 심장이 매일 뛰어요
-Step 2: have one's heart in one's mouth
-Step 3: These days, my heart is in my mouth because of that.</t>
-        </is>
-      </c>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
           <t>These days, because of that, my heart beats every day.</t>
@@ -9090,9 +8302,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Step 1. 노아웃 1, 3루 기회
-Step 2. bases loaded
-Step 3. Yeom Ki-Hun broke away with an RBI single to center field in a bases loaded situation, followed by Choe Ju-Hwi hitting an RBI single to right field to nail down the coffin.</t>
+          <t xml:space="preserve"> Yeom Ki-Hun broke away with an RBI single to center field in a bases loaded situation, followed by Choe Ju-Hwi hitting an RBI single to right field to nail down the coffin.</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -9145,13 +8355,7 @@
           <t>As I talked with them, I felt that my words were not in line with their expectations, so I ended up declining the request.</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Step 1: 말이 아귀가 맞지 않다 (words don't match one's actions)
-Step 2: Actions speak louder than words
-Step 3: During the counseling, I realized their actions weren't matching their words, so in the end, I refused the request.</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>As I advised them, the words didn't seem to fit and ultimately I had to refuse the request.</t>
@@ -9206,13 +8410,7 @@
           <t>Min Jin-woong's body was found near the train station, with no apparent trauma and eyes closed as if he had peacefully passed away, shocking everyone.</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Step 1: "아니나 다를까"  
-Step 2: "Sure enough"  
-Step 3: Sure enough, Min Jin-woong's body was found near the train station, and the sight of him lying there without a scratch, eyes closed, was shocking to everyone.</t>
-        </is>
-      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
           <t>Sure enough, near the train station, the body of Min Jin-woong was found, lying lifeless without any external injuries, shocking everyone.</t>
@@ -9273,9 +8471,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Step 1. Idiom: 오가다 (go back and forth)
-Step 2. Equivalent idiom in English: go back and forth
-Step 3. As someone going back and forth between New York and Seoul, it couldn't be a more perfect gallery.</t>
+          <t xml:space="preserve"> As someone going back and forth between New York and Seoul, it couldn't be a more perfect gallery.</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9332,13 +8528,7 @@
           <t>I'm from the northern region, so I'm not at all affected by the cold.</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Step 1: 춥다고 머리를 긁다
-Step 2: Cold feet
-Step 3: I'm from the northern region, so I have cold feet.</t>
-        </is>
-      </c>
+      <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
           <t>I'm from the northern region, so I'm not bothered by the cold.</t>
@@ -9395,9 +8585,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Step 1. 꽂기가 알게 모르게 이뤄지다
-Step 2. Happen behind someone's back
-Step 3. After the start of the 7th administration, reorganization occurred, and as a large personnel reshuffle in January is imminent, installing one's own people happens behind someone's back, knowingly or unknowingly.</t>
+          <t xml:space="preserve"> After the start of the 7th administration, reorganization occurred, and as a large personnel reshuffle in January is imminent, installing one's own people happens behind someone's back, knowingly or unknowingly.</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -9454,13 +8642,7 @@
           <t>There are cases where functional requirements do not match or when it is not possible to accommodate both functional and non-functional requirements at the same time.</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Step 1: 앞뒤가 맞지 않는다        
-Step 2: Not adding up        
-Step 3: Functional requirements don't add up, or there are situations where both functional and non-functional requirements cannot be accommodated at the same time.</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
           <t>There are cases where functional requirements do not match, or where functional requirements and non-functional requirements cannot be accommodated simultaneously.</t>
@@ -9509,9 +8691,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Step 1. 앞서거니 뒤서거니
-Step 2. Back-and-forth battle
-Step 3. In Indiana, the home state of Vice President Pence, incumbent Democratic Senator Joe Donnelly and Republican candidate Mike Braun are locked in a back-and-forth battle.</t>
+          <t xml:space="preserve"> In Indiana, the home state of Vice President Pence, incumbent Democratic Senator Joe Donnelly and Republican candidate Mike Braun are locked in a back-and-forth battle.</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -9570,9 +8750,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Step 1. "어깨가 무겁다"  
-Step 2. "To have a lot on one's plate"  
-Step 3. The rookie problem solvers have a lot on their plate as they approach the debut of the supermatch.</t>
+          <t xml:space="preserve"> The rookie problem solvers have a lot on their plate as they approach the debut of the supermatch.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -9625,13 +8803,7 @@
           <t>If we look at the performances displayed while moving between the national team and the club team so far, Son Heung-min has enough qualifications to stand shoulder to shoulder as a candidate.</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Step 1: 어깨를 나란히 하다  
-Step 2: Shoulder to shoulder  
-Step 3: If we consider the performance displayed while moving back and forth between the national team and the club team, it is clear that Son Heung-min is fully qualified to be a candidate shoulder to shoulder with others.</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
           <t>If you look at his performances while playing for both the national team and his club team, it is clear that Son Heung-min deserves to be considered shoulder to shoulder with other candidates.</t>
@@ -9690,13 +8862,7 @@
           <t>A country where even if you are different, poor, and unable to fight, the weak is not subjected to harassment and can live proudly with their head held high is truly a good country to live in.</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Step 1: 괴롭힘을 당하다
-Step 2: "pick on someone their own size"
-Step 3: Even if they look different, don't have enough money, and can't fight, a country where the weak are not picked on and can live proudly with their head held high is truly a good place to live.</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>Even if you look different, have no money, and cannot fight, a country where the weak are not harassed and can live confidently with their shoulders back is truly a good country to live in.</t>
@@ -9753,9 +8919,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Step 1. 가치를 보장하지 않다
-Step 2. Hang by a thread
-Step 3. No one guarantees its value, so significant losses can occur.</t>
+          <t xml:space="preserve"> No one guarantees its value, so significant losses can occur.</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -9812,13 +8976,7 @@
           <t>I held my daughter, who was feeling drowsy, and cried for a long time.</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Step 1: 어안이 벙벙해
-Step 2: eyes popping out of one's head
-Step 3: I held my daughter, whose eyes were popping out of her head, and cried for a while.</t>
-        </is>
-      </c>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
           <t>I held my daughter, whose eyes were swollen, and cried for a long time.</t>
@@ -9877,13 +9035,7 @@
           <t>The salon owner as well as the writer said that their hearts sank.</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Step 1: 억장이 무너지다 (collapse of courage)
-Step 2: Lose one's nerve
-Step 3: The salon owner, as well as the writer, lost their nerve, it is said.</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
           <t>The owner of the beauty salon, as well as the author, reportedly had their stomachs collapse.</t>
@@ -9942,13 +9094,7 @@
           <t>Unusual weather conditions such as hail and frost, as well as natural disasters, occurred frequently in a domino effect.</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Step 1: 엎친 데 덮친 격으로
-Step 2: Out of the frying pan into the fire
-Step 3: Extreme weather conditions and natural disasters such as hailstorms and frost occurred frequently, as if jumping from one challenge to an even more difficult one.</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
           <t>One disaster after another struck, with abnormal weather conditions such as hail and frost, as well as natural disasters occurring frequently.</t>
@@ -9999,13 +9145,7 @@
           <t>Tastes vary according to age, and preferences also differ, so finding a restaurant that satisfies the entire family is no easy task.</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Step 1: 여간 어려운 게 아니다  
-Step 2: Easier said than done  
-Step 3: Finding a restaurant that satisfies the tastes of all family members is easier said than done, as preferences and tastes vary with age.</t>
-        </is>
-      </c>
+      <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
           <t>Depending on age, tastes vary, and everyone's preferences are different, so finding a restaurant that satisfies the whole family is not an easy task.</t>
@@ -10060,13 +9200,7 @@
           <t>You will practice much love and will definitely bear fruit, giving strength to multicultural children who receive abundant love and grow.</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Step 1: 실천하다
-Step 2: Practice what you preach 
-Step 3: You will bear much fruit by practicing a lot of love, and undoubtedly, you will give strength to multicultural children who grow up receiving and giving love plentifully.</t>
-        </is>
-      </c>
+      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
           <t>You will practice a lot of love, and you will surely bear fruit, and give strength to multicultural children who receive plenty of love and grow.</t>
@@ -10117,13 +9251,7 @@
           <t>I couldn't even move around in the city center.</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Step 1: 오도 가도 못하다
-Step 2: "다리가 미워도 절어라"
-Step 3: "I can't even move an inch in the middle of town."</t>
-        </is>
-      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
           <t>I got myself in a mess right in the heart of the city.</t>
@@ -10178,13 +9306,7 @@
           <t>I may be outspoken, but this doesn't make sense.</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Step 1: 오지랖이 넓다  
-Step 2: "to go beyond the pale" is similar in meaning  
-Step 3: I might be understanding more than necessary, but this doesn't make sense.</t>
-        </is>
-      </c>
+      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
           <t>I might be good at boasting, but this just doesn't make sense.</t>
@@ -10243,13 +9365,7 @@
           <t>As the performance ended, a thunderous applause poured out, and the music columnist sitting next to me praised Kim Hong-park, saying, "I think I've heard all the sounds a French horn can produce."</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Step 1: 소리가 아니다 
-Step 2: It's music to my ears  
-Step 3: As soon as the performance ended, a thunderous applause poured out, and the music columnist sitting next to me praised Kim Hong-park, saying, “It's music to my ears, I think I've heard all the sounds the horn can produce.”</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
           <t>After the performance ended, a thunderous applause erupted, and the music columnist sitting next to me particularly praised Kim Hong Park, saying, "I think I've heard all the sounds the horn can produce."</t>
@@ -10308,13 +9424,7 @@
           <t>President Moon expressed, "I wanted to take this opportunity to express my gratitude for your dedication to strengthening our US-Korea alliance and ensuring strong security in light of the newly reorganized leadership of the two armies."</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Step 1: 치하하다
-Step 2: "tip one's hat to someone" (idiom) 
-Step 3: President Moon expressed that he organized this gathering to "tip his hat to everyone who has dedicated themselves to our strong South Korea-US alliance and security amid the new composition of the military leadership."</t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
           <t>President Moon said, "I have prepared this opportunity to express my gratitude to all of you who are dedicated to our strong ROK-US alliance and strong national security in light of the newly reorganized command structure of the two countries."</t>
@@ -10371,9 +9481,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Step 1. Idiom: 운전대를 잡다  
-Step 2. Equivalent idiom: "get behind the wheel"  
-Step 3. Even having a glass of soju and getting behind the wheel can result in having your license suspended.</t>
+          <t xml:space="preserve"> Even having a glass of soju and getting behind the wheel can result in having your license suspended.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10434,13 +9542,7 @@
           <t>I reluctantly agreed to his demand.</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Step 1: Cry over spilled milk
-Step 2: Cry over spilt milk
-Step 3: I reluctantly agreed to the demand.</t>
-        </is>
-      </c>
+      <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
           <t>I complied with the demand tearfully and reluctantly.</t>
@@ -10497,9 +9599,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Step 1. "치솟아 오르는"  
-Step 2. "Hit the roof"  
-Step 3. Sounds of cries shooting up from all over the place were heard being forcefully suppressed.</t>
+          <t xml:space="preserve"> Sounds of cries shooting up from all over the place were heard being forcefully suppressed.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -10560,13 +9660,7 @@
           <t>The result was a tragic war that ended with both sides drawing a ceasefire line that looked almost identical to the 38th parallel, inflicting fatal wounds on both sides without any resolution.</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Step 1: 별반 다르지 않다
-Step 2: "Much of a muchness"
-Step 3: The outcome was a senseless war that ended with both sides inflicted with fatal wounds, drawing a ceasefire line that was much of a muchness with the 38th parallel.</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
           <t>It was a senseless war that ended with drawing a ceasefire line that seemed no different from the 38th parallel, leaving both sides with fatal wounds, a tragic and pointless war.</t>
@@ -10625,13 +9719,7 @@
           <t>I am always so proud every time we put on a performance in the name of our school.</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Step 1: 자랑스럽다 (be proud)
-Step 2: be on cloud nine
-Step 3: I'm on cloud nine every time we perform showcasing our school's name.</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
           <t>I am always so proud when we perform under the name of our school.</t>
@@ -10686,13 +9774,7 @@
           <t>There was a long-haired employee over there, and he left a strong impression.</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Step 1: 인상을 쓰다  
-Step 2: "rub someone the wrong way"  
-Step 3: That employee with long hair over there rubbed me the wrong way.</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
           <t>There was a long-haired employee over there, and he seemed very imposing.</t>
@@ -10747,13 +9829,7 @@
           <t>I tried to call that friend who is supposedly an expert in this area to help solve the problem, but things ended up getting more complicated.</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Step 1: 일이 더 꼬여버리다  
-Step 2: To "make a bad situation worse"  
-Step 3: I called that friend who claimed to be an expert in this field to try and solve it, but things just got even more messed up.</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
           <t>I tried calling that friend who was supposed to be an expert in this field to help solve the issue, but things ended up getting even more complicated.</t>
@@ -10804,13 +9880,7 @@
           <t>Since you didn't ask for it, you should have kept your mouth shut.</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Step 1: 입을 다물고 있다  
-Step 2: Hold your tongue  
-Step 3: Since you were not asked, you should have held your tongue.</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
           <t>Since you never asked, you should have kept your mouth shut.</t>
@@ -10871,9 +9941,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Step 1. 입을 맞추다  
-Step 2. to stick to one's story  
-Step 3. There was a high possibility that the parties involved in the case coordinated their stories and tampered with evidence.</t>
+          <t xml:space="preserve"> There was a high possibility that the parties involved in the case coordinated their stories and tampered with evidence.</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -10934,13 +10002,7 @@
           <t>Many people gathered, expressing concern that honest businesses may suffer due to some oblivious restaurant operators who do not adhere to hygiene concepts.</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Step 1: 입을 모으다
-Step 2: "To have a meeting of the minds" - to come to an agreement or consensus
-Step 3: Many people "had a meeting of the minds" expressing concerns that honest business owners may suffer due to some ignorant restaurant operators who don't follow hygiene standards.</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
           <t>Many people have voiced concerns, saying, "Honest business owners may suffer because of some oblivious restaurant operators who neglect hygiene concepts."</t>
@@ -10999,13 +10061,7 @@
           <t>In the past, it was considered a success for an unknown designer to enter a major company or have their brand acquired, now, it is confidence in establishing a foundation where they can confidently put their name on the business.</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Step 1: 자신의 이름을 걸다
-Step 2: Put one's name on the map
-Step 3: In the past, it was considered a success for an unknown designer to enter a large company or have their brand acquired. Now, it is confidence in having built a foundation to confidently put one's name on the map and run a business.</t>
-        </is>
-      </c>
+      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
           <t>In the past, it was considered a success for an unknown designer to enter a major company or have their brand acquired through word of mouth. Now, it is the confidence that they have built a foundation where they can confidently put their name on their business.</t>
@@ -11060,13 +10116,7 @@
           <t>There was a time when I, as a social affairs reporter, went around with the phrase "When will all these bad things stop happening" on my lips.</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Step 1: "입에 달고 다니다"   
-Step 2: "to keep on one's lips"    
-Step 3: There was a time during my days as a society desk reporter when I kept saying to myself, "Will these bad things ever stop happening somewhere?"</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
           <t>During my time as a society reporter, there were times when I carried around the words "When will these bad things ever end?" on my lips.</t>
@@ -11121,13 +10171,7 @@
           <t>As time passes, the intensity of its meaning may soften and it may become a commonly used expression even for men, but for someone who has always held a respect for women, it is not a word that would be casually spoken.</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Step 1: 함부로 입에 담지 않다
-Step 2: "To bite one's tongue"
-Step 3: If someone has always had respect for women, even if the intensity of that meaning lessens as time goes by and it has become a commonly used expression among men, that word would not have been casually uttered.</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>As time passes, the intensity of that meaning may soften and it may have become a commonly used expression for men, but for someone who has always harbored respect for women, it is not a word that they would easily utter.</t>
@@ -11182,13 +10226,7 @@
           <t>She has a light tongue.</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Step 1: Idiom
-Step 2: There is no equivalent idiom in English.
-Step 3: She has loose lips.</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
           <t>She has a loose tongue.</t>
@@ -11247,13 +10285,7 @@
           <t>On the evening of the 28th, Director Yoo Hee-dong sent a text message to the journalists present, complaining that the situation was "beyond bewildering, to the point where one's mouth would drop open in disbelief."</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Step 1:  "당황스러움을 넘어 입이 딱 벌어질 정도로 상상하지 못한 현상"
-Step 2: There is no equivalent idiom in English for this expression.
-Step 3: Yu Hui-dong, the chief of the National Intelligence Service, texted journalists on the night of the 28th complaining about "a situation so beyond surprising that his mouth was left agape beyond just being confused."</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>Director Yu Heedong sent a message to reporters entering in on the night of the 28th, lamenting, "An unexpected phenomenon beyond embarrassment, which leaves me speechless."</t>
@@ -11308,13 +10340,7 @@
           <t>Therefore, elderly parents worry day and night.</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Step 1: 자나 깨나 (idom)  
-Step 2: "day and night" (idom with similar meaning)  
-Step 3: Therefore, old parents worry day and night.</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
           <t>So, old parents worry night and day.</t>
@@ -11369,13 +10395,7 @@
           <t>On the 24th, Nick Hansen, a satellite image analyst and military specialist, also a visiting researcher at the Stanford University Center for International Security Cooperation, agreed with the statement that the facility was hidden in satellite images, according to the broadcast.</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Step 1: 자취를 감추다  
-Step 2: To sweep something under the rug  
-Step 3: Nick Hansen, an analyst of satellite images and military expert, and also a visiting researcher at Stanford University's Center for International Security Cooperation, agreed on the 24th that this facility had swept any trace under the rug, as reported by the broadcast.</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
           <t>Nick Hansen, a satellite image analyst and military expert, also agreed on the 24th that this facility had hidden its traces in satellite photos, according to a broadcast.</t>
@@ -11426,13 +10446,7 @@
           <t>Some citizens also brought up the possibility that, considering Yoon's strong character and experience through 30 years of civic activism, he could be fit for the position of mayor.</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Step 1: 거들다 
-Step 2: Sing the same song 
-Step 3: Some citizens also sang the same song for over 30 years, believing that with the deep-seated integrity and experience of former Mayor Yun gained through civic movements, it could very well be the case.</t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
           <t>Some citizens suggested that it is quite possible when looking at the character and career of the former mayor Yoon, who has thick bones developed through 30 years of civil activism.</t>
@@ -11491,13 +10505,7 @@
           <t>It means that there is a possibility of transferring to a currently vacant position as a executive secretary.</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Step 1: 옮길 가능성이 있다 (possibility of being transferred) 
-Step 2: "The ball is in your court" 
-Step 3: There is a possibility of being transferred to the currently vacant position of secretary, meaning that the ball is in your court.</t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
           <t>It means that there is a possibility of transferring to a vacant position of a political secretary.</t>
@@ -11552,13 +10560,7 @@
           <t>Through this, we present the results of studying practical theories and cases so that companies can achieve outstanding results that were not possible before.</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Step 1: 없다 (does not exist)
-Step 2: No idiom equivalent; figurative meaning: to achieve exceptional results that have not been achieved before.
-Step 3: This presents the results of studying practical theories and cases to enable companies to achieve exceptional results that have not been achieved before.</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
           <t>Through this, we present the results of studying practical theories and cases so that businesses can achieve outstanding results that were not possible before.</t>
@@ -11605,13 +10607,7 @@
           <t>It was a story done without much thought, but it seems to have struck a chord.</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Step 1: 정곡을 찌르다 (Idiom)
-Step 2: Hit the nail on the head (Equivalent idiom)
-Step 3: It's a story I tried without much thought, but it seems like I hit the nail on the head.</t>
-        </is>
-      </c>
+      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
           <t>It was just a thoughtless story, but it seems to have hit the jackpot.</t>
@@ -11666,13 +10662,7 @@
           <t>People who drive like that need to get their act together.</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Step 1: 그따위로 운전하다 (drive like that)
-Step 2: To drive like a maniac 
-Step 3: People who drive like that need to get their act together.</t>
-        </is>
-      </c>
+      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
           <t>Those who drive like that need to wake up.</t>
@@ -11727,13 +10717,7 @@
           <t>New York City has put a halt on the issuance of new licenses for ride-sharing companies Uber and Lyft in order to reduce traffic congestion.</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Step 1: 제동을 걸다 (put the brakes on)
-Step 2: Put the brakes on (to stop or slow down a process)
-Step 3: New York City put the brakes on the new license registration of vehicle-sharing service companies Uber and Lyft in an effort to reduce traffic congestion.</t>
-        </is>
-      </c>
+      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
           <t>New York City has put the brakes on the registration of new licenses for car-sharing service companies Uber and Lyft in an effort to reduce traffic congestion.</t>
@@ -11784,13 +10768,7 @@
           <t>After the Constitutional Court's decision that the abortion law is unconstitutional, they cheered and emphasized in a statement that "April 11, 2019 is the day that marked the end of the shameful history."</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Step 1: 낙태죄
-Step 2: There is no equivalent idiom for "낙태죄."
-Step 3: After the constitutional court's decision declaring the abortion ban unconstitutional, they cheered and emphasized through a statement that "April 11th, 2019 marked the end of a shameful history."</t>
-        </is>
-      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
           <t>After the Constitutional Court's decision declaring the abortion ban unconstitutional, they cheered and emphasized through a statement, "April 11, 2019 is the day that put an end to the shameful history."</t>
@@ -11845,13 +10823,7 @@
           <t>The government has resorted to raiding the people's pockets and has become a mere facade.</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Step 1: 주머니를 털다  
-Step 2: Line one's pockets  
-Step 3: The government has resorted to lining its pockets by raiding the citizens'.</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>The government has resorted to digging into the pockets of the people in an attempt to give the appearance of taking action.</t>
@@ -11910,13 +10882,7 @@
           <t>Korean young men who were forcibly taken as student soldiers during the Japanese colonial era escaped for their lives and sought out the Provisional Government of the Republic of Korea, eventually joining the Independence Army.</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Step 1: 죽기 살기로
-Step 2: tooth and nail
-Step 3: Korean young men who were drafted as student soldiers during the Japanese occupation escaped death and joined the Korean Liberation Army to find the Provisional Government of the Republic of Korea.</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>Korean youth who were forcibly taken as student soldiers during the Japanese colonial period risked their lives to escape and sought out the Provisional Government of the Republic of Korea, eventually joining the Liberation Army.</t>
@@ -11967,13 +10933,7 @@
           <t>Although successful in business, he hated standing in front of people more than death.</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Step 1: 죽기보다 싫다  
-Step 2: Would rather die than  
-Step 3: Although a successful businessman, he would rather die than speak in front of people.</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
           <t>He was a successful businessman, but he hated standing in front of people more than dying.</t>
@@ -12028,13 +10988,7 @@
           <t>When the crowd rushed in, the Japanese police officers inside the main residence remained silent as if paralyzed.</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Step 1: 쥐죽은 듯  
-Step 2: to be as quiet as a mouse  
-Step 3: When the crowd started to gather, the Japanese police inside the venue were as quiet as a mouse.</t>
-        </is>
-      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>As the crowd surged in, the Japanese police officers who were inside the main building remained silent as if they were dead.</t>
@@ -12085,13 +11039,7 @@
           <t>Since Director Kim Ki-tae resigned on the 16th, Park Heung-sik has taken the interim helm, leading Kia to an impressive 8-1 record in 9 games.</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Step 1: 상승세
-Step 2: on a winning streak
-Step 3: Kia has been on a terrifying winning streak of 8 wins and 1 loss since interim coach Park Heung-sik took the helm following Director Kim Ki-tae's resignation on the 16th.</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
           <t>After head coach Kim Ki-tae resigned on the 16th, Park Heung-sik took over as the interim head coach and led the team to a formidable winning streak of 8 wins and 1 loss in 9 games.</t>
@@ -12146,13 +11094,7 @@
           <t>Kim Young-gwang, who plays a neighborhood police officer with an excessive eagerness to resolve all incidents in the neighborhood in order to appease his conscience, is expected to show a different acting performance from the gentle image he has shown before.</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Step 1: 직성이 풀리는
-Step 2: Blow off steam
-Step 3: Dealing with all the incidents in the neighborhood to release his pent-up frustrations, Kim Young-gwang, who has been assigned as an overzealous neighborhood police officer, is expected to showcase a different acting style than his usual gentle demeanor.</t>
-        </is>
-      </c>
+      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
           <t>Kim Young-gwang, who has been appointed as the overly enthusiastic neighborhood police officer tasked with resolving all the incidents in the neighborhood to relieve his pent-up frustration, is expected to showcase a different acting from his previous gentle image.</t>
@@ -12204,13 +11146,7 @@
           <t>I often feel drained after spending the whole day making coffee and serving customers when I come back home.</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>Step 1: 진이 다 빠지다
-Step 2: "lose one's edge" 
-Step 3: When I come home after making coffee and attending to customers all day, I often lose my edge.</t>
-        </is>
-      </c>
+      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
           <t>I often feel drained when I come back home after spending the whole day making coffee and serving customers.</t>
@@ -12269,13 +11205,7 @@
           <t>In July last year, candidate Kim and candidate Noh for Chief Justice had to sweat blood to explain and apologize for the forged resume and plagiarism in the contract.</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Step 1: 진땀을 흘리다 (shedding sweat) 
-Step 2: Sweat blood (work extremely hard) 
-Step 3: In July, the candidates for the Supreme Court, Kim and Noh, had to sweat blood to explain and apologize for the forged resumes and contracts they created.</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
           <t>In July last year, candidates for the Prosecutor General and Supreme Court Justice, Kim and Noh, had to sweat blood to explain and apologize for their forged academic records.</t>
@@ -12326,13 +11256,7 @@
           <t>There have been several occasions in the history of Korean football where they were eliminated earlier than expected from major tournaments due to a momentary lapse in concentration.</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Step 1: 방심으로 
-Step 2: Let one’s guard down
-Step 3: In major tournaments of the past, the Korean soccer team has often let their guard down and exited earlier than expected.</t>
-        </is>
-      </c>
+      <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
           <t>Korean soccer has often been eliminated earlier than expected in major tournaments due to a momentary lapse in concentration.</t>
@@ -12389,9 +11313,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Step 1. This sentence contains the idiom "짚고 넘어가다."
-Step 2. The equivalent idiom in English is "to pass over lightly."
-Step 3. There is an important question here that we need to pass over lightly.</t>
+          <t xml:space="preserve"> There is an important question here that we need to pass over lightly.</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -12452,13 +11374,7 @@
           <t>A Democratic Party official responded by saying, "Compared to the United States, the media in our country reacts unusually strongly to jokes" and "There is an intention to muddy the atmosphere of the ruling party as a whole by attacking the party leader."</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Step 1: 유별나게 반응하다
-Step 2: Blow hot and cold
-Step 3: A Democratic Party official argued, "Compared to the United States, the media in our country blows hot and cold about jokes," stating that there is an intention to disrupt the overall atmosphere of the ruling party by attacking the party leader.</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
           <t>A Democratic Party official countered, saying, "Compared to the United States, the media in our country reacts unusually to jokes" and "There is an intention to cast cold water on the overall atmosphere of the ruling party by attacking the party leader."</t>
@@ -12517,13 +11433,7 @@
           <t>Private capital-based urban park development projects in Incheon have taken the first step.</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Step 1: 첫 단추를 끼다
-Step 2: To "break the ice"
-Step 3: In Incheon, the development project of a city park by private capital broke the ice.</t>
-        </is>
-      </c>
+      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
           <t>The development project of a city park in Incheon, led by private capital, has taken its first step.</t>
@@ -12578,13 +11488,7 @@
           <t>Companies are keeping a close eye on the movements of the US Treasury Department, but the Blue House has not provided any specific statement on this day.</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Step 1: 촉각을 곤두세우다
-Step 2: Be on the edge of one's seat
-Step 3: Companies are on the edge of their seats in response to the U.S. Treasury Department's actions, but the Blue House has not shown any particular stance on this day either.</t>
-        </is>
-      </c>
+      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
           <t>Businesses are keenly watching the movements of the U.S. Treasury Department, but the Blue House has not yet released any specific position on the matter today.</t>
@@ -12645,9 +11549,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Step 1. "총대를 메다"
-Step 2. "To take the reins" 
-Step 3. It is known that Superintendent Park led it practically while Deputy Chief Lim directly took the reins on site.</t>
+          <t xml:space="preserve"> It is known that Superintendent Park led it practically while Deputy Chief Lim directly took the reins on site.</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -12708,13 +11610,7 @@
           <t>When looking at the point when it was officially established, it seems like Samsung took the lead with self-luminous QLED, followed by LG entering the market, but the difference is not significant enough to say who came first.</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Step 1: 누가 먼저라 할 정도로 차이는 없다.
-Step 2: Six of one, half a dozen of the other.
-Step 3: When you look at it from an official perspective, it seems like Samsung made the first move with self-luminous QLED and LG quickly followed suit, but there's really no significant difference in who came first.</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
           <t>In terms of formalization, it seems that Samsung took the initiative first with self-luminous QLED, and LG followed suit, but there is not much difference in terms of who came first.</t>
@@ -12765,13 +11661,7 @@
           <t>Governor Lee Jae-myung of Gyeonggi Province, who recently expressed his intention to disclose the costs of public construction projects and expand the application of standard market prices, has now classified construction companies' bid-rigging practices as "tax thieves" and taken a strong stance against them.</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Step 1: 세금도둑
-Step 2: "pickpocket"
-Step 3: The Gyeonggi Province Governor Lee Jae-myung, who revealed his intention to disclose the expenses and expand the application of the standard unit prices of public construction projects in Gyeonggi Province, has now defined the bid rigging acts of construction companies as "pickpockets" and drawn his sword.</t>
-        </is>
-      </c>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
           <t>Governor Lee Jae-myung of Gyeonggi Province, who has disclosed the cost of public construction projects and expressed his intention to expand the application of standard market unit prices, has now defined bid-rigging by construction companies as "tax thieves" and drawn a line by taking a firm stance.</t>
@@ -12826,13 +11716,7 @@
           <t>Even after hiring her, the severity of the economic downturn in the United States can be seen in the fact that the Writers Guild of America (WGA), famous for its high standards, received several calls to inquire about additional employment opportunities.</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Step 1: 콧대가 높다  
-Step 2: To have your nose in the air (English)  
-Step 3: Even after hiring her, the severity of the economic downturn in the United States is so serious that the Writers Guild of America (WGA), famous for its high noses, received several calls inquiring about additional employment.</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
           <t>Even after hiring her, the fact that the Writers Guild of America (WGA), known for its high nose, received so many phone calls inquiring about additional employment reflects the seriousness of the economic downturn in the United States.</t>
@@ -12883,13 +11767,7 @@
           <t>It is expected that the promotion of the local air industry will receive a boost with the 'Green Air Industry Promotion Project' worth 350 billion won from 2020 to 2024 in Gwangju City.</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Step 1: 탄력을 받다
-Step 2: "Get the ball rolling"
-Step 3: The local air industry is expected to get the ball rolling with the 350 billion won "Eco-friendly Air Industry Promotion Project" from 2020 to 2024 in Gwangju City.</t>
-        </is>
-      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
           <t>It is expected that the promotion of local air industry will gain momentum with the 'Eco-friendly Air Industry Promotion Project' totaling 350 billion won from 2020 to 2024 in Gwangju City.</t>
@@ -12944,13 +11822,7 @@
           <t>This outrageous expression of hatred, disguised as a joke, has been circulating for decades, but it has only been in the past few years that the understanding that such words are problematic has started to spread.</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Step 1: 탈을 썼다
-Step 2: To have a skeleton in the closet
-Step 3: This outrageous expression, disguised as a joke, has been circulating for a decade or two, but the awareness that this kind of speech is a problem has only started spreading in the last few years.</t>
-        </is>
-      </c>
+      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
           <t>This tremendous expression of hatred, disguised as a joke, has been circulated for ten or twenty years, but the recognition that such words are a problem has only started to spread in the past few years.</t>
@@ -13001,13 +11873,7 @@
           <t>The fact that a journalist completely copied someone else's article without changing a single word is shocking.</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Step 1: 토씨 하나 안 빼다
-Step 2: Not change a word - Keep something intact without changing a thing
-Step 3: The journalist literally copied the article without changing a single word.</t>
-        </is>
-      </c>
+      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
           <t>It is said that the journalist copied someone else's article word for word without omitting a single particle.</t>
@@ -13062,13 +11928,7 @@
           <t>There is a freshness in the way they engage in conversations with citizens they meet on the spot, or when Burnunim receives rejections, that you don't see in other variety shows.</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Step 1: 맞거나
-Step 2: Every cloud has a silver lining
-Step 3: "Every time they get rejected or interact with citizens they meet on the spot, there is a freshness that cannot be seen in other entertainment shows."</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
           <t>The sight of people getting rejected by strangers or having conversations with random citizens on the spot brings a freshness that you can't see in other variety shows.</t>
@@ -13127,13 +11987,7 @@
           <t>Nowadays, there are many unscrupulous companies that try to find faults when returning rental cars.</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Step 1: 트집을 잡다  
-Step 2: Grasping at straws   
-Step 3: These days, there are many unscrupulous companies that are grasping at straws when it comes to returning rental cars.</t>
-        </is>
-      </c>
+      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
           <t>These days, I heard that there are many unscrupulous companies that try to find faults when returning rent cars.</t>
@@ -13192,13 +12046,7 @@
           <t>I'll refer to other companies' cases first to get an idea.</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Step 1: 참고하다 (reference)  
-Step 2: Take a leaf out of someone's book  
-Step 3: I will try to set the framework by looking at examples from other companies first.</t>
-        </is>
-      </c>
+      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
           <t>I will refer to the examples of other companies first and try to establish a framework.</t>
@@ -13253,13 +12101,7 @@
           <t>Before the chef changed, this restaurant was a disaster.</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Step 1: 파리 날리다 (literally "to let the flies fly") means to fail or go downhill. 
-Step 2: go to the dogs
-Step 3: This restaurant was going to the dogs before the chef changed.</t>
-        </is>
-      </c>
+      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
           <t>Before the chef changed, there were flies in this restaurant.</t>
@@ -13318,13 +12160,7 @@
           <t>The general evaluation of Korean movies in China is generally positive, but there is a slightly fixed impression. However, breaking these stereotypes has elevated the status of Korean movies, which continue to evolve.</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Step 1: 판에 박히다
-Step 2: To fit the mold
-Step 3: In China, the general opinion of Korean movies is good overall, but there was a feeling of them fitting the mold, so breaking this stereotype has elevated the status of Korean movies that are continuing to evolve by one step.</t>
-        </is>
-      </c>
+      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
           <t>Generally, the reviews of Korean films in China are positive, but there is a stereotypical impression that seems fixed. Breaking this stereotype has elevated the status of Korean films by recognizing their continued development and progress.</t>
@@ -13375,13 +12211,7 @@
           <t>President Donald Trump of the United States finally opened the door.</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Step 1: "포문을 열다"
-Step 2: "To open the door" 
-Step 3: "Donald Trump, the President of the United States, finally opened the door."</t>
-        </is>
-      </c>
+      <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
           <t>Donald Trump, the President of the United States, finally opened the door.</t>
@@ -13436,13 +12266,7 @@
           <t>As time passes, I increasingly feel that I have been able to come this far because many people have helped me.</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Step 1: 느끼다  
-Step 2: "To hit home"  
-Step 3: Many people helped me along the way, and as time goes by, I feel it hitting home more and more that I wouldn't have made it this far without them.</t>
-        </is>
-      </c>
+      <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
           <t>As time goes by, I am increasingly realizing that I was able to come this far because many people helped me.</t>
@@ -13493,13 +12317,7 @@
           <t>It is a difficult situation to accept even if unavoidable circumstances arise for an animal caregiver.</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Step 1: 받아주기 어려운 상황이다
-Step 2: A similar idiom in English is "take a rain check"
-Step 3: It is a situation where it is difficult to accommodate even if unavoidable circumstances arise for an animal caretaker.</t>
-        </is>
-      </c>
+      <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>It is a difficult situation for animal caregivers to accept unavoidable circumstances.</t>
@@ -13550,13 +12368,7 @@
           <t>I drank too much alcohol yesterday and blacked out.</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Step 1: 필름이 끊기다
-Step 2: Black out
-Step 3: I drank too much yesterday and blacked out.</t>
-        </is>
-      </c>
+      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
           <t>I drank too much yesterday, so I blacked out.</t>
@@ -13615,13 +12427,7 @@
           <t>He is gathering a crowd with his dance moves and is expressing his displeasure over a song he sang in support of America eight years ago.</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Step 1: 핏대를 세우다
-Step 2: Stand on ceremony
-Step 3: He is making a fuss over the fact that he sang an anti-American song eight years ago, as if he's standing on ceremony.</t>
-        </is>
-      </c>
+      <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
           <t>It seems that, although he is gathering to dance and praising the good, eight years ago, he is still making a fuss about singing one pro-American song in the past.</t>
@@ -13680,13 +12486,7 @@
           <t>At the heart of the festival, the power of people from one to ten is needed.</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Step 1: 이면
-Step 2: Behind the scenes
-Step 3: Behind the scenes of a festival, the power of people from one to ten is needed.</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
           <t>To run a festival requires the help of people from one to ten.</t>
@@ -13747,9 +12547,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Step 1. "하는 수 없이"  
-Step 2. "There's no use crying over spilled milk."  
-Step 3. "If that's the case, I guess I have to look for another client."</t>
+          <t xml:space="preserve"> "If that's the case, I guess I have to look for another client."</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -13802,13 +12600,7 @@
           <t>Existing investors have put up their holdings to withdraw funds, but with such a small volume and the explosive popularity of BTS, its value is soaring without knowing the sky-high.</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>Step 1: 치솟고 있다
-Step 2: shoot for the moon
-Step 3: The existing investors have let go of their holdings to recover funds, and despite the small volume, the value is skyrocketing, fueled by BTS's explosive popularity.</t>
-        </is>
-      </c>
+      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
           <t>Existing investors have put up their holdings to recoup their funds, but with the limited amount of shares and the explosive popularity of BTS, the value is soaring high without knowing the sky.</t>
@@ -13863,13 +12655,7 @@
           <t>People who just live on the streets and those who want to become self-reliant are as different as heaven and earth.</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>Step 1: 하늘과 땅 차이예요   
-Step 2: worlds apart  
-Step 3: People who simply live on the streets and those who strive for independence are worlds apart.</t>
-        </is>
-      </c>
+      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
           <t>The difference between those who simply live on the streets and those who have a desire to stand on their own is like heaven and earth.</t>
@@ -13924,13 +12710,7 @@
           <t>Watching the aging appearance of parents every year, it is natural to worry about medical expenses, surgical expenses, or increasing education costs for children.</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>Step 1: 연로해지다 (getting old)
-Step 2: "getting on in years"
-Step 3: Seeing the parents aging every year and worrying about medical expenses, surgery costs, or children's education fees that are increasing day by day is just a part of life.</t>
-        </is>
-      </c>
+      <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
           <t>It is natural to worry about the increasing hospital and surgery expenses while seeing aging parents every year, and also to worry about the growing educational expenses of children that increase day by day.</t>
@@ -13985,14 +12765,7 @@
           <t>The Democratic Party is meeting with the business sector, saying that they are moving further away every day.</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>Step 1: 하루가 멀다  
-Step 2: "A watched pot never boils"  
-Step 3: The Democratic Party of Korea is meeting with the economic sector, saying that "a watched pot never boils."  
-(Note: "A watched pot never boils" is an English idiom used to convey that time seems to move slower when one is eagerly waiting for something.)</t>
-        </is>
-      </c>
+      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
           <t>The ruling Democratic Party of Korea is meeting with the business community because time flies.</t>
@@ -14047,14 +12820,7 @@
           <t>Noh Suk-young spoke for the first time at the post-game mixed zone, saying "Everyone came together with one heart and one mind for a good result" and "I will give my all in the final match."</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>Step 1: 한마음 한뜻
-Step 2: "Sing from the same hymn sheet"
-Step 3: No literal translation. 
-Fluent translation: "After the game, No Suk-young spoke out for the first time at the mixed zone, saying, 'We all came together as one and got a good result,' and promised to give his all in the final."</t>
-        </is>
-      </c>
+      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>After the game, No Suk-young spoke up for the first time in the mixed zone and said, "It was a good result that everyone came together with one heart and one mind" and "I will do my best in the final."</t>
@@ -14113,13 +12879,7 @@
           <t>KBO Commissioner Jung Un-chan added, "Korean baseball should not become a cash cow for foreign players anymore," emphasizing the point.</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>Step 1: 한술 더 뜨다 (한국어)
-Step 2: "One more drink" (영어)
-Step 3: 정운찬, the Commissioner of the KBO, emphasized, "Korean baseball should no longer be a free lunch for foreign players," as if saying, "one more drink."</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
           <t>KBO Commissioner Jung Un-chan added, "Korean baseball should not become a means of livelihood for foreign players" emphasizing.</t>
@@ -14180,9 +12940,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Step 1. 한숨을 돌리게 됐다  
-Step 2. Turn the tables  
-Step 3. Doosan lost their star catcher, Yang Eui-ji, to NC for 125 billion won for 4 years, but ended up turning the tables by sitting down two pitchers.</t>
+          <t xml:space="preserve"> Doosan lost their star catcher, Yang Eui-ji, to NC for 125 billion won for 4 years, but ended up turning the tables by sitting down two pitchers.</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -14235,13 +12993,7 @@
           <t>At the time of diagnosis, Marina's condition was urgent and required immediate surgery. Upon hearing about the difficult situation of the family, the doctors from Yonsei University in Korea readily promised to provide free surgery in Korea.</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Step 1: 약속하다  
-Step 2: Promise to keep
-Step 3: At the time of diagnosis, Marina's condition was urgent and required immediate surgery, upon hearing about the family's difficult situation, the doctors from Yonsei University readily promised to perform a free surgery in Korea.</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>At the time of diagnosis, Marina's condition was urgent and required immediate surgery, and upon hearing about the family's difficult situation, doctors from Yonsei University in Korea willingly promised to provide free surgery in Korea.</t>
@@ -14296,13 +13048,7 @@
           <t>Small private planning agencies or on-site staff who work overtime and overnight for stage preparation have no consideration for the working conditions of the staff, which is an illusion of a "fantasy order".</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>Step 1: 허울 좋은
-Step 2: All show and no substance
-Step 3: Small private planning agencies or stage staff members who work overtime and through the night to prepare performances are being subject to a 'all show and no substance' approach that completely disregards their working conditions.</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
           <t>Small private production companies are like a mirage, neglecting the working conditions of on-site staff who regularly work overtime and overnight for stage preparations, without any consideration, creating a superficial 'order of imagination'.</t>
@@ -14361,13 +13107,7 @@
           <t>After finishing the broadcast, Senior Researcher Kim said, "I have some experience with broadcasting, but internet broadcasting was really different," with a hint of nostalgia in his voice.</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>Step 1: 혀를 내둘리다 (literal meaning: to bite one's tongue)
-Step 2: Hold one's tongue
-Step 3: After finishing the broadcast, Senior Researcher Kim held his tongue, saying, "Although I have some experience with broadcasts, internet broadcasting was really different."</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>After finishing the broadcast, Senior Researcher Kim commented, "I do have some experience with broadcasts, but (internet broadcasting) was really different," sticking out her tongue.</t>
@@ -14426,13 +13166,7 @@
           <t>There are mothers who are obsessed with finding out which academy the top student in the school around him attends and how they study.</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>Step 1: 혈안이 된
-Step 2: "have an eagle eye on" 
-Step 3: Some moms around him have an eagle eye on how the top student in the school goes to an academy and studies.</t>
-        </is>
-      </c>
+      <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
           <t>There are mothers who have become obsessed with knowing which academy the top-ranked student in the school attends and how they study.</t>
@@ -14487,13 +13221,7 @@
           <t>They say that even tigers appear when you talk about them, and look who's here now.</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>Step 1: "호랑이도 제말하면 나타난다" 
-Step 2: "Speak of the devil"
-Step 3: "Speak of the devil, here he comes."</t>
-        </is>
-      </c>
+      <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
           <t>They say that if you talk about a tiger, it will appear, and now here you are.</t>
@@ -14552,13 +13280,7 @@
           <t>It is not common for artists with high exposure, even from different agencies, to have the opportunity to collaborate and synchronize with each other.</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Step 1: 호흡을 맞추다
-Step 2: To be on the same page
-Step 3: Artists with significant exposure, even from different agencies, don't often have the chance to be on the same page.</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>It is not common for highly-exposed artists, especially those belonging to different management companies, to have the opportunity to collaborate and synchronize with each other.</t>
@@ -14619,9 +13341,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Step 1. 재조명 되다
-Step 2. Come back to haunt  
-Step 3. The past interview is coming back to haunt Doosan Magazine CEO Park Seo-won, who is a second-generation chaebol, as Jotsoo-ae's announcer reveals their disagreement.</t>
+          <t xml:space="preserve"> The past interview is coming back to haunt Doosan Magazine CEO Park Seo-won, who is a second-generation chaebol, as Jotsoo-ae's announcer reveals their disagreement.</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
